--- a/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
+++ b/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
@@ -1,30 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\Poland\Models\eps-1.2.4-us\InputData\elec\CCaMC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="14360" windowHeight="11020" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="9135" tabRatio="724" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
     <sheet name="Cost Improvement" sheetId="3" r:id="rId2"/>
-    <sheet name="Poland Capital Costs" sheetId="11" r:id="rId3"/>
+    <sheet name="CCaMC-AFOaMCpUC" sheetId="7" r:id="rId3"/>
     <sheet name="Nuclear Fixed O&amp;M Calcs" sheetId="14" r:id="rId4"/>
-    <sheet name="CCaMC-BCCpUC" sheetId="6" r:id="rId5"/>
-    <sheet name="Currency" sheetId="13" r:id="rId6"/>
-    <sheet name="CCaMC-AFOaMCpUC" sheetId="7" r:id="rId7"/>
-    <sheet name="CCaMC-VOaMCpUC" sheetId="8" r:id="rId8"/>
+    <sheet name="Poland Capital Costs" sheetId="11" r:id="rId5"/>
+    <sheet name="CCaMC-BCCpUC" sheetId="6" r:id="rId6"/>
+    <sheet name="CCaMC-VOaMCpUC" sheetId="8" r:id="rId7"/>
+    <sheet name="Currency" sheetId="13" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId9"/>
+    <pivotCache cacheId="48" r:id="rId9"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="225">
   <si>
     <t>Onshore Wind</t>
   </si>
@@ -890,11 +895,38 @@
       <t>Table 4.7. Reference unit OVN for the sources under consideration [EUR thousand’2012/MW].</t>
     </r>
   </si>
+  <si>
+    <t>Coal new (hard coal)</t>
+  </si>
+  <si>
+    <t>Offshore wind</t>
+  </si>
+  <si>
+    <t>lignite</t>
+  </si>
+  <si>
+    <t>offshore wind</t>
+  </si>
+  <si>
+    <t>Lignite ($/MW)</t>
+  </si>
+  <si>
+    <t>Offshore wind ($/MW)</t>
+  </si>
+  <si>
+    <t>preexisting retiring</t>
+  </si>
+  <si>
+    <t>preexisting nonretiring</t>
+  </si>
+  <si>
+    <t>newly built</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1805,7 +1837,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A82:D90" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -1884,6 +1916,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -1992,7 +2027,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2027,7 +2062,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2240,34 +2275,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="2"/>
-    <col min="2" max="2" width="85.08984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="77.54296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="56.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="10.7265625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="1" width="9.28515625" style="2"/>
+    <col min="2" max="2" width="85.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="77.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="56.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="10.7109375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -2278,188 +2313,188 @@
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="26" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>2013</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="26" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="20" t="s">
         <v>171</v>
       </c>
       <c r="D11"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="23" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="2">
         <v>2015</v>
       </c>
       <c r="D13"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="23" t="s">
         <v>169</v>
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="3" t="s">
         <v>170</v>
       </c>
       <c r="D15"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="23" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="14"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="19" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="26" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="14"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="2">
         <v>2013</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="26" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="26"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="26" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="2">
         <v>2014</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="26" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="26" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="14" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="14"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>34</v>
       </c>
@@ -2472,7 +2507,7 @@
       <c r="J38" s="16"/>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>178</v>
       </c>
@@ -2485,7 +2520,7 @@
       <c r="J39" s="16"/>
       <c r="K39" s="16"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>179</v>
       </c>
@@ -2498,7 +2533,7 @@
       <c r="J40" s="16"/>
       <c r="K40" s="16"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>56</v>
       </c>
@@ -2511,7 +2546,7 @@
       <c r="J41" s="16"/>
       <c r="K41" s="16"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>57</v>
       </c>
@@ -2524,7 +2559,7 @@
       <c r="J42" s="16"/>
       <c r="K42" s="16"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="D43" s="11"/>
       <c r="E43" s="16"/>
@@ -2535,7 +2570,7 @@
       <c r="J43" s="16"/>
       <c r="K43" s="16"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>58</v>
       </c>
@@ -2548,7 +2583,7 @@
       <c r="J44" s="16"/>
       <c r="K44" s="16"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>59</v>
       </c>
@@ -2561,7 +2596,7 @@
       <c r="J45" s="16"/>
       <c r="K45" s="16"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>180</v>
       </c>
@@ -2574,7 +2609,7 @@
       <c r="J46" s="16"/>
       <c r="K46" s="16"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
       <c r="D47" s="11"/>
       <c r="E47" s="16"/>
@@ -2585,7 +2620,7 @@
       <c r="J47" s="16"/>
       <c r="K47" s="16"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>181</v>
       </c>
@@ -2598,7 +2633,7 @@
       <c r="J48" s="16"/>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>182</v>
       </c>
@@ -2611,7 +2646,7 @@
       <c r="J49" s="16"/>
       <c r="K49" s="16"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
       <c r="D50" s="11"/>
       <c r="E50" s="16"/>
@@ -2622,7 +2657,7 @@
       <c r="J50" s="16"/>
       <c r="K50" s="16"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>35</v>
       </c>
@@ -2635,7 +2670,7 @@
       <c r="J51" s="16"/>
       <c r="K51" s="16"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>183</v>
       </c>
@@ -2649,7 +2684,7 @@
       <c r="J52" s="16"/>
       <c r="K52" s="16"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>184</v>
       </c>
@@ -2663,7 +2698,7 @@
       <c r="J53" s="16"/>
       <c r="K53" s="16"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
       <c r="B54" s="14"/>
       <c r="D54" s="11"/>
@@ -2675,7 +2710,7 @@
       <c r="J54" s="16"/>
       <c r="K54" s="16"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="14"/>
       <c r="D55" s="11"/>
@@ -2687,7 +2722,7 @@
       <c r="J55" s="16"/>
       <c r="K55" s="16"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
       <c r="B56" s="14"/>
       <c r="D56" s="11"/>
@@ -2699,7 +2734,7 @@
       <c r="J56" s="16"/>
       <c r="K56" s="16"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
       <c r="B58" s="14"/>
       <c r="D58" s="11"/>
@@ -2711,7 +2746,7 @@
       <c r="J58" s="16"/>
       <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
       <c r="B59" s="14"/>
       <c r="D59" s="11"/>
@@ -2723,7 +2758,7 @@
       <c r="J59" s="16"/>
       <c r="K59" s="16"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
       <c r="B60" s="14"/>
       <c r="D60" s="11"/>
@@ -2735,7 +2770,7 @@
       <c r="J60" s="16"/>
       <c r="K60" s="16"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
       <c r="B61" s="14"/>
       <c r="D61" s="11"/>
@@ -2747,7 +2782,7 @@
       <c r="J61" s="16"/>
       <c r="K61" s="16"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
       <c r="B62" s="14"/>
       <c r="D62" s="11"/>
@@ -2759,7 +2794,7 @@
       <c r="J62" s="16"/>
       <c r="K62" s="16"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
       <c r="B63" s="14"/>
       <c r="D63" s="11"/>
@@ -2771,7 +2806,7 @@
       <c r="J63" s="16"/>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
       <c r="B64" s="14"/>
       <c r="D64" s="11"/>
@@ -2783,7 +2818,7 @@
       <c r="J64" s="16"/>
       <c r="K64" s="16"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
       <c r="B65" s="14"/>
       <c r="D65" s="11"/>
@@ -2795,7 +2830,7 @@
       <c r="J65" s="16"/>
       <c r="K65" s="16"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
       <c r="B66" s="14"/>
       <c r="D66" s="11"/>
@@ -2807,7 +2842,7 @@
       <c r="J66" s="16"/>
       <c r="K66" s="16"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
       <c r="B67" s="14"/>
       <c r="D67" s="11"/>
@@ -2819,7 +2854,7 @@
       <c r="J67" s="16"/>
       <c r="K67" s="16"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
       <c r="B68" s="14"/>
       <c r="D68" s="11"/>
@@ -2831,7 +2866,7 @@
       <c r="J68" s="16"/>
       <c r="K68" s="16"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
       <c r="B69" s="14"/>
       <c r="D69" s="11"/>
@@ -2843,7 +2878,7 @@
       <c r="J69" s="16"/>
       <c r="K69" s="16"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
       <c r="B70" s="14"/>
       <c r="D70" s="11"/>
@@ -2855,7 +2890,7 @@
       <c r="J70" s="16"/>
       <c r="K70" s="16"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
       <c r="B71" s="14"/>
       <c r="D71" s="11"/>
@@ -2867,7 +2902,7 @@
       <c r="J71" s="16"/>
       <c r="K71" s="16"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
       <c r="B72" s="14"/>
       <c r="D72" s="11"/>
@@ -2879,7 +2914,7 @@
       <c r="J72" s="16"/>
       <c r="K72" s="16"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="15"/>
       <c r="B73" s="14"/>
       <c r="D73" s="11"/>
@@ -2891,7 +2926,7 @@
       <c r="J73" s="16"/>
       <c r="K73" s="16"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
       <c r="B74" s="14"/>
       <c r="D74" s="11"/>
@@ -2903,7 +2938,7 @@
       <c r="J74" s="16"/>
       <c r="K74" s="16"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="15"/>
       <c r="B75" s="14"/>
       <c r="D75" s="11"/>
@@ -2915,7 +2950,7 @@
       <c r="J75" s="16"/>
       <c r="K75" s="16"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="15"/>
       <c r="B76" s="14"/>
       <c r="D76" s="11"/>
@@ -2927,7 +2962,7 @@
       <c r="J76" s="16"/>
       <c r="K76" s="16"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="15"/>
       <c r="B77" s="14"/>
       <c r="D77" s="11"/>
@@ -2939,7 +2974,7 @@
       <c r="J77" s="16"/>
       <c r="K77" s="16"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="15"/>
       <c r="B78" s="14"/>
       <c r="D78" s="11"/>
@@ -2951,7 +2986,7 @@
       <c r="J78" s="16"/>
       <c r="K78" s="16"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="14"/>
       <c r="D79" s="11"/>
@@ -2973,50 +3008,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" customWidth="1"/>
-    <col min="4" max="7" width="13.1796875" customWidth="1"/>
-    <col min="8" max="8" width="15.1796875" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="12.7265625" customWidth="1"/>
-    <col min="12" max="12" width="16.7265625" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>162</v>
       </c>
@@ -3032,7 +3069,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
@@ -3067,7 +3104,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="42">
         <f>AVERAGE('Poland Capital Costs'!D44:D47)</f>
         <v>-1.1836708450342626E-3</v>
@@ -3112,7 +3149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -3126,7 +3163,7 @@
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>164</v>
       </c>
@@ -3142,7 +3179,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
         <v>2</v>
@@ -3178,7 +3215,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2">
         <v>2013</v>
@@ -3214,7 +3251,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3225,7 +3262,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>163</v>
       </c>
@@ -3241,7 +3278,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>8</v>
       </c>
@@ -3279,7 +3316,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2013</v>
       </c>
@@ -3315,7 +3352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>2014</v>
       </c>
@@ -3363,7 +3400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>2015</v>
       </c>
@@ -3412,7 +3449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>2016</v>
       </c>
@@ -3461,7 +3498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>2017</v>
       </c>
@@ -3510,7 +3547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>2018</v>
       </c>
@@ -3559,7 +3596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>2019</v>
       </c>
@@ -3608,7 +3645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>2020</v>
       </c>
@@ -3657,7 +3694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>2021</v>
       </c>
@@ -3706,7 +3743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>2022</v>
       </c>
@@ -3755,7 +3792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>2023</v>
       </c>
@@ -3804,7 +3841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>2024</v>
       </c>
@@ -3853,7 +3890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>2025</v>
       </c>
@@ -3902,7 +3939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>2026</v>
       </c>
@@ -3951,7 +3988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>2027</v>
       </c>
@@ -4000,7 +4037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>2028</v>
       </c>
@@ -4049,7 +4086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>2029</v>
       </c>
@@ -4098,7 +4135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>2030</v>
       </c>
@@ -4147,7 +4184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>2031</v>
       </c>
@@ -4196,7 +4233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>2032</v>
       </c>
@@ -4245,7 +4282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>2033</v>
       </c>
@@ -4294,7 +4331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>2034</v>
       </c>
@@ -4343,7 +4380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>2035</v>
       </c>
@@ -4392,7 +4429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>2036</v>
       </c>
@@ -4441,7 +4478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>2037</v>
       </c>
@@ -4490,7 +4527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>2038</v>
       </c>
@@ -4539,7 +4576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>2039</v>
       </c>
@@ -4588,7 +4625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>2040</v>
       </c>
@@ -4637,7 +4674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>2041</v>
       </c>
@@ -4686,7 +4723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>2042</v>
       </c>
@@ -4735,7 +4772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>2043</v>
       </c>
@@ -4784,7 +4821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>2044</v>
       </c>
@@ -4833,7 +4870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>2045</v>
       </c>
@@ -4882,7 +4919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>2046</v>
       </c>
@@ -4931,7 +4968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>2047</v>
       </c>
@@ -4980,7 +5017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>2048</v>
       </c>
@@ -5029,7 +5066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>2049</v>
       </c>
@@ -5078,7 +5115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>2050</v>
       </c>
@@ -5127,7 +5164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
@@ -5141,7 +5178,7 @@
       <c r="K55" s="13"/>
       <c r="L55" s="13"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -5155,7 +5192,7 @@
       <c r="K56" s="13"/>
       <c r="L56" s="13"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -5169,7 +5206,7 @@
       <c r="K57" s="13"/>
       <c r="L57" s="13"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
@@ -5183,7 +5220,7 @@
       <c r="K58" s="13"/>
       <c r="L58" s="13"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -5197,7 +5234,7 @@
       <c r="K59" s="13"/>
       <c r="L59" s="13"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -5211,7 +5248,7 @@
       <c r="K60" s="13"/>
       <c r="L60" s="13"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -5225,7 +5262,7 @@
       <c r="K61" s="13"/>
       <c r="L61" s="13"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
@@ -5239,7 +5276,7 @@
       <c r="K62" s="13"/>
       <c r="L62" s="13"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -5253,7 +5290,7 @@
       <c r="K63" s="13"/>
       <c r="L63" s="13"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
@@ -5267,7 +5304,7 @@
       <c r="K64" s="13"/>
       <c r="L64" s="13"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -5288,21 +5325,1709 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="5">
+        <f>'Poland Capital Costs'!D95*1000</f>
+        <v>39299.749910682389</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <f>B2</f>
+        <v>39299.749910682389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="5">
+        <f>INDEX('Poland Capital Costs'!$D$83:$D$93,MATCH('CCaMC-AFOaMCpUC'!A3,'Poland Capital Costs'!$A$83:$A$93,0),1)*1000</f>
+        <v>37666.513550757925</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:D14" si="0">B3</f>
+        <v>37666.513550757925</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="5">
+        <f>'Poland Capital Costs'!A78*1000</f>
+        <v>118577.07509881424</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="0"/>
+        <v>118577.07509881424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="5">
+        <f>INDEX('Poland Capital Costs'!$D$83:$D$93,MATCH('CCaMC-AFOaMCpUC'!A5,'Poland Capital Costs'!$A$83:$A$93,0),1)*1000</f>
+        <v>199050.68136579392</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>199050.68136579392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="5">
+        <f>INDEX('Poland Capital Costs'!$D$83:$D$93,MATCH('CCaMC-AFOaMCpUC'!A6,'Poland Capital Costs'!$A$83:$A$93,0),1)*1000</f>
+        <v>61246.36349716736</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>61246.36349716736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="5">
+        <f>INDEX('Poland Capital Costs'!$D$83:$D$93,MATCH('CCaMC-AFOaMCpUC'!A7,'Poland Capital Costs'!$A$83:$A$93,0),1)*1000</f>
+        <v>35216.659010871233</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>35216.659010871233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="5">
+        <f>INDEX('Poland Capital Costs'!$D$83:$D$93,MATCH('CCaMC-AFOaMCpUC'!A8,'Poland Capital Costs'!$A$83:$A$93,0),1)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="5">
+        <f>INDEX('Poland Capital Costs'!$D$83:$D$93,MATCH('CCaMC-AFOaMCpUC'!A9,'Poland Capital Costs'!$A$83:$A$93,0),1)*1000</f>
+        <v>48690.858980248049</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>48690.858980248049</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="5">
+        <f>INDEX('Poland Capital Costs'!$D$83:$D$93,MATCH('CCaMC-AFOaMCpUC'!A10,'Poland Capital Costs'!$A$83:$A$93,0),1)*1000</f>
+        <v>111721.49999999999</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>111721.49999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="5">
+        <f>INDEX('Poland Capital Costs'!$D$83:$D$93,MATCH('CCaMC-AFOaMCpUC'!A11,'Poland Capital Costs'!$A$83:$A$93,0),1)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="5">
+        <f>INDEX('Poland Capital Costs'!$D$83:$D$93,MATCH('CCaMC-AFOaMCpUC'!A12,'Poland Capital Costs'!$A$83:$A$93,0),1)*1000</f>
+        <v>26642.168121267801</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>26642.168121267801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13">
+        <f>'Poland Capital Costs'!D96*1000</f>
+        <v>37972.745368243763</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>37972.745368243763</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14">
+        <f>'Poland Capital Costs'!D97*1000</f>
+        <v>183739.09049150208</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>183739.09049150208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" style="26" customWidth="1"/>
+    <col min="2" max="6" width="8.7109375" style="26"/>
+    <col min="7" max="7" width="25.7109375" style="26" customWidth="1"/>
+    <col min="8" max="12" width="8.7109375" style="26"/>
+    <col min="13" max="13" width="15.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7109375" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="G1" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="M1" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="N1" s="26">
+        <f>1/0.759</f>
+        <v>1.3175230566534915</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="55">
+        <v>2025</v>
+      </c>
+      <c r="C2" s="55">
+        <v>2035</v>
+      </c>
+      <c r="D2" s="54">
+        <v>2050</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="H2" s="52">
+        <v>2025</v>
+      </c>
+      <c r="I2" s="52">
+        <v>2035</v>
+      </c>
+      <c r="J2" s="51">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="58">
+        <v>1550</v>
+      </c>
+      <c r="C3" s="62">
+        <v>1550</v>
+      </c>
+      <c r="D3" s="61">
+        <v>1550</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="H3" s="58">
+        <f t="shared" ref="H3:J7" si="0">B3*$N$1</f>
+        <v>2042.1607378129117</v>
+      </c>
+      <c r="I3" s="58">
+        <f t="shared" si="0"/>
+        <v>2042.1607378129117</v>
+      </c>
+      <c r="J3" s="58">
+        <f t="shared" si="0"/>
+        <v>2042.1607378129117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="58">
+        <v>2600</v>
+      </c>
+      <c r="C4" s="62">
+        <v>2500</v>
+      </c>
+      <c r="D4" s="61">
+        <v>2400</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="H4" s="58">
+        <f t="shared" si="0"/>
+        <v>3425.559947299078</v>
+      </c>
+      <c r="I4" s="58">
+        <f t="shared" si="0"/>
+        <v>3293.8076416337285</v>
+      </c>
+      <c r="J4" s="58">
+        <f t="shared" si="0"/>
+        <v>3162.0553359683795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="58">
+        <v>1700</v>
+      </c>
+      <c r="C5" s="62">
+        <v>1700</v>
+      </c>
+      <c r="D5" s="61">
+        <v>1700</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="H5" s="58">
+        <f t="shared" si="0"/>
+        <v>2239.7891963109355</v>
+      </c>
+      <c r="I5" s="58">
+        <f t="shared" si="0"/>
+        <v>2239.7891963109355</v>
+      </c>
+      <c r="J5" s="58">
+        <f t="shared" si="0"/>
+        <v>2239.7891963109355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="58">
+        <v>2750</v>
+      </c>
+      <c r="C6" s="62">
+        <v>2650</v>
+      </c>
+      <c r="D6" s="61">
+        <v>2550</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="H6" s="58">
+        <f t="shared" si="0"/>
+        <v>3623.1884057971015</v>
+      </c>
+      <c r="I6" s="58">
+        <f t="shared" si="0"/>
+        <v>3491.4361001317525</v>
+      </c>
+      <c r="J6" s="58">
+        <f t="shared" si="0"/>
+        <v>3359.683794466403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="58">
+        <v>4000</v>
+      </c>
+      <c r="C7" s="62">
+        <v>3850</v>
+      </c>
+      <c r="D7" s="61">
+        <v>3650</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="H7" s="58">
+        <f t="shared" si="0"/>
+        <v>5270.092226613966</v>
+      </c>
+      <c r="I7" s="58">
+        <f t="shared" si="0"/>
+        <v>5072.463768115942</v>
+      </c>
+      <c r="J7" s="58">
+        <f t="shared" si="0"/>
+        <v>4808.959156785244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="D8" s="61">
+        <v>4150</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58">
+        <f t="shared" ref="J8:J16" si="1">D8*$N$1</f>
+        <v>5467.72068511199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" s="60">
+        <v>400</v>
+      </c>
+      <c r="C9" s="62">
+        <v>400</v>
+      </c>
+      <c r="D9" s="59">
+        <v>400</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="H9" s="58">
+        <f t="shared" ref="H9:I16" si="2">B9*$N$1</f>
+        <v>527.00922266139662</v>
+      </c>
+      <c r="I9" s="58">
+        <f t="shared" si="2"/>
+        <v>527.00922266139662</v>
+      </c>
+      <c r="J9" s="58">
+        <f t="shared" si="1"/>
+        <v>527.00922266139662</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" s="60">
+        <v>850</v>
+      </c>
+      <c r="C10" s="60">
+        <v>850</v>
+      </c>
+      <c r="D10" s="59">
+        <v>850</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="H10" s="58">
+        <f t="shared" si="2"/>
+        <v>1119.8945981554677</v>
+      </c>
+      <c r="I10" s="58">
+        <f t="shared" si="2"/>
+        <v>1119.8945981554677</v>
+      </c>
+      <c r="J10" s="58">
+        <f t="shared" si="1"/>
+        <v>1119.8945981554677</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="58">
+        <v>2250</v>
+      </c>
+      <c r="C11" s="62">
+        <v>2100</v>
+      </c>
+      <c r="D11" s="61">
+        <v>2100</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="H11" s="58">
+        <f t="shared" si="2"/>
+        <v>2964.426877470356</v>
+      </c>
+      <c r="I11" s="58">
+        <f t="shared" si="2"/>
+        <v>2766.798418972332</v>
+      </c>
+      <c r="J11" s="58">
+        <f t="shared" si="1"/>
+        <v>2766.798418972332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" s="58">
+        <v>3100</v>
+      </c>
+      <c r="C12" s="62">
+        <v>2900</v>
+      </c>
+      <c r="D12" s="61">
+        <v>2700</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="H12" s="58">
+        <f t="shared" si="2"/>
+        <v>4084.3214756258235</v>
+      </c>
+      <c r="I12" s="58">
+        <f t="shared" si="2"/>
+        <v>3820.816864295125</v>
+      </c>
+      <c r="J12" s="58">
+        <f t="shared" si="1"/>
+        <v>3557.312252964427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" s="58">
+        <v>2400</v>
+      </c>
+      <c r="C13" s="62">
+        <v>1950</v>
+      </c>
+      <c r="D13" s="61">
+        <v>1800</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="H13" s="58">
+        <f t="shared" si="2"/>
+        <v>3162.0553359683795</v>
+      </c>
+      <c r="I13" s="58">
+        <f t="shared" si="2"/>
+        <v>2569.1699604743085</v>
+      </c>
+      <c r="J13" s="58">
+        <f t="shared" si="1"/>
+        <v>2371.5415019762845</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="B14" s="58">
+        <v>1350</v>
+      </c>
+      <c r="C14" s="62">
+        <v>1300</v>
+      </c>
+      <c r="D14" s="61">
+        <v>1250</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="H14" s="58">
+        <f t="shared" si="2"/>
+        <v>1778.6561264822135</v>
+      </c>
+      <c r="I14" s="58">
+        <f t="shared" si="2"/>
+        <v>1712.779973649539</v>
+      </c>
+      <c r="J14" s="58">
+        <f t="shared" si="1"/>
+        <v>1646.9038208168643</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" s="58">
+        <v>2550</v>
+      </c>
+      <c r="C15" s="62">
+        <v>2350</v>
+      </c>
+      <c r="D15" s="61">
+        <v>2200</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="H15" s="58">
+        <f t="shared" si="2"/>
+        <v>3359.683794466403</v>
+      </c>
+      <c r="I15" s="58">
+        <f t="shared" si="2"/>
+        <v>3096.179183135705</v>
+      </c>
+      <c r="J15" s="58">
+        <f t="shared" si="1"/>
+        <v>2898.550724637681</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="58">
+        <v>1350</v>
+      </c>
+      <c r="C16" s="62">
+        <v>1200</v>
+      </c>
+      <c r="D16" s="61">
+        <v>1100</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="H16" s="58">
+        <f t="shared" si="2"/>
+        <v>1778.6561264822135</v>
+      </c>
+      <c r="I16" s="58">
+        <f t="shared" si="2"/>
+        <v>1581.0276679841897</v>
+      </c>
+      <c r="J16" s="58">
+        <f t="shared" si="1"/>
+        <v>1449.2753623188405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="G17" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="G18" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="G20" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="B21" s="55">
+        <v>2025</v>
+      </c>
+      <c r="C21" s="55">
+        <v>2035</v>
+      </c>
+      <c r="D21" s="54">
+        <v>2050</v>
+      </c>
+      <c r="G21" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="H21" s="52">
+        <v>2025</v>
+      </c>
+      <c r="I21" s="52">
+        <v>2035</v>
+      </c>
+      <c r="J21" s="51">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="B22" s="60">
+        <v>36</v>
+      </c>
+      <c r="C22" s="60">
+        <v>36</v>
+      </c>
+      <c r="D22" s="59">
+        <v>36</v>
+      </c>
+      <c r="G22" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="H22" s="58">
+        <f t="shared" ref="H22:J26" si="3">B22*$N$1</f>
+        <v>47.430830039525695</v>
+      </c>
+      <c r="I22" s="58">
+        <f t="shared" si="3"/>
+        <v>47.430830039525695</v>
+      </c>
+      <c r="J22" s="58">
+        <f t="shared" si="3"/>
+        <v>47.430830039525695</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="B23" s="60">
+        <v>62</v>
+      </c>
+      <c r="C23" s="60">
+        <v>58</v>
+      </c>
+      <c r="D23" s="59">
+        <v>52</v>
+      </c>
+      <c r="G23" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="H23" s="58">
+        <f t="shared" si="3"/>
+        <v>81.686429512516469</v>
+      </c>
+      <c r="I23" s="58">
+        <f t="shared" si="3"/>
+        <v>76.4163372859025</v>
+      </c>
+      <c r="J23" s="58">
+        <f t="shared" si="3"/>
+        <v>68.511198945981562</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="B24" s="60">
+        <v>40</v>
+      </c>
+      <c r="C24" s="60">
+        <v>40</v>
+      </c>
+      <c r="D24" s="59">
+        <v>40</v>
+      </c>
+      <c r="G24" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="H24" s="58">
+        <f t="shared" si="3"/>
+        <v>52.700922266139656</v>
+      </c>
+      <c r="I24" s="58">
+        <f t="shared" si="3"/>
+        <v>52.700922266139656</v>
+      </c>
+      <c r="J24" s="58">
+        <f t="shared" si="3"/>
+        <v>52.700922266139656</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" s="60">
+        <v>66</v>
+      </c>
+      <c r="C25" s="60">
+        <v>60</v>
+      </c>
+      <c r="D25" s="59">
+        <v>56</v>
+      </c>
+      <c r="G25" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="H25" s="58">
+        <f t="shared" si="3"/>
+        <v>86.956521739130437</v>
+      </c>
+      <c r="I25" s="58">
+        <f t="shared" si="3"/>
+        <v>79.051383399209485</v>
+      </c>
+      <c r="J25" s="58">
+        <f t="shared" si="3"/>
+        <v>73.781291172595516</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" s="60">
+        <v>90</v>
+      </c>
+      <c r="C26" s="60">
+        <v>90</v>
+      </c>
+      <c r="D26" s="59">
+        <v>90</v>
+      </c>
+      <c r="G26" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="H26" s="64">
+        <f t="shared" si="3"/>
+        <v>118.57707509881423</v>
+      </c>
+      <c r="I26" s="64">
+        <f t="shared" si="3"/>
+        <v>118.57707509881423</v>
+      </c>
+      <c r="J26" s="64">
+        <f t="shared" si="3"/>
+        <v>118.57707509881423</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="59">
+        <v>80</v>
+      </c>
+      <c r="G27" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58">
+        <f t="shared" ref="J27:J35" si="4">D27*$N$1</f>
+        <v>105.40184453227931</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="B28" s="60">
+        <v>10</v>
+      </c>
+      <c r="C28" s="60">
+        <v>10</v>
+      </c>
+      <c r="D28" s="59">
+        <v>10</v>
+      </c>
+      <c r="G28" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="H28" s="58">
+        <f t="shared" ref="H28:I35" si="5">B28*$N$1</f>
+        <v>13.175230566534914</v>
+      </c>
+      <c r="I28" s="58">
+        <f t="shared" si="5"/>
+        <v>13.175230566534914</v>
+      </c>
+      <c r="J28" s="58">
+        <f t="shared" si="4"/>
+        <v>13.175230566534914</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="B29" s="60">
+        <v>18</v>
+      </c>
+      <c r="C29" s="60">
+        <v>18</v>
+      </c>
+      <c r="D29" s="59">
+        <v>18</v>
+      </c>
+      <c r="G29" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="H29" s="58">
+        <f t="shared" si="5"/>
+        <v>23.715415019762847</v>
+      </c>
+      <c r="I29" s="58">
+        <f t="shared" si="5"/>
+        <v>23.715415019762847</v>
+      </c>
+      <c r="J29" s="58">
+        <f t="shared" si="4"/>
+        <v>23.715415019762847</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="B30" s="60">
+        <v>58</v>
+      </c>
+      <c r="C30" s="60">
+        <v>56</v>
+      </c>
+      <c r="D30" s="59">
+        <v>54</v>
+      </c>
+      <c r="G30" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="H30" s="58">
+        <f t="shared" si="5"/>
+        <v>76.4163372859025</v>
+      </c>
+      <c r="I30" s="58">
+        <f t="shared" si="5"/>
+        <v>73.781291172595516</v>
+      </c>
+      <c r="J30" s="58">
+        <f t="shared" si="4"/>
+        <v>71.146245059288532</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="B31" s="60">
+        <v>64</v>
+      </c>
+      <c r="C31" s="60">
+        <v>62</v>
+      </c>
+      <c r="D31" s="59">
+        <v>60</v>
+      </c>
+      <c r="G31" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="H31" s="58">
+        <f t="shared" si="5"/>
+        <v>84.321475625823453</v>
+      </c>
+      <c r="I31" s="58">
+        <f t="shared" si="5"/>
+        <v>81.686429512516469</v>
+      </c>
+      <c r="J31" s="58">
+        <f t="shared" si="4"/>
+        <v>79.051383399209485</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="B32" s="60">
+        <v>70</v>
+      </c>
+      <c r="C32" s="60">
+        <v>70</v>
+      </c>
+      <c r="D32" s="59">
+        <v>70</v>
+      </c>
+      <c r="G32" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="H32" s="58">
+        <f t="shared" si="5"/>
+        <v>92.226613965744406</v>
+      </c>
+      <c r="I32" s="58">
+        <f t="shared" si="5"/>
+        <v>92.226613965744406</v>
+      </c>
+      <c r="J32" s="58">
+        <f t="shared" si="4"/>
+        <v>92.226613965744406</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="B33" s="60">
+        <v>40</v>
+      </c>
+      <c r="C33" s="60">
+        <v>40</v>
+      </c>
+      <c r="D33" s="59">
+        <v>40</v>
+      </c>
+      <c r="G33" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="H33" s="58">
+        <f t="shared" si="5"/>
+        <v>52.700922266139656</v>
+      </c>
+      <c r="I33" s="58">
+        <f t="shared" si="5"/>
+        <v>52.700922266139656</v>
+      </c>
+      <c r="J33" s="58">
+        <f t="shared" si="4"/>
+        <v>52.700922266139656</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="B34" s="60">
+        <v>95</v>
+      </c>
+      <c r="C34" s="60">
+        <v>85</v>
+      </c>
+      <c r="D34" s="59">
+        <v>80</v>
+      </c>
+      <c r="G34" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="H34" s="58">
+        <f t="shared" si="5"/>
+        <v>125.16469038208169</v>
+      </c>
+      <c r="I34" s="58">
+        <f t="shared" si="5"/>
+        <v>111.98945981554678</v>
+      </c>
+      <c r="J34" s="58">
+        <f t="shared" si="4"/>
+        <v>105.40184453227931</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="B35" s="60">
+        <v>20</v>
+      </c>
+      <c r="C35" s="60">
+        <v>20</v>
+      </c>
+      <c r="D35" s="59">
+        <v>20</v>
+      </c>
+      <c r="G35" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="H35" s="58">
+        <f t="shared" si="5"/>
+        <v>26.350461133069828</v>
+      </c>
+      <c r="I35" s="58">
+        <f t="shared" si="5"/>
+        <v>26.350461133069828</v>
+      </c>
+      <c r="J35" s="58">
+        <f t="shared" si="4"/>
+        <v>26.350461133069828</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="G36" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="G37" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="G39" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="G40" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="B41" s="55">
+        <v>2025</v>
+      </c>
+      <c r="C41" s="55">
+        <v>2035</v>
+      </c>
+      <c r="D41" s="54">
+        <v>2050</v>
+      </c>
+      <c r="G41" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="H41" s="52">
+        <v>2025</v>
+      </c>
+      <c r="I41" s="52">
+        <v>2035</v>
+      </c>
+      <c r="J41" s="51">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="B42" s="49">
+        <v>2.4</v>
+      </c>
+      <c r="C42" s="49">
+        <v>2.4</v>
+      </c>
+      <c r="D42" s="48">
+        <v>2.4</v>
+      </c>
+      <c r="G42" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="H42" s="46">
+        <f t="shared" ref="H42:J46" si="6">B42*$N$1</f>
+        <v>3.1620553359683794</v>
+      </c>
+      <c r="I42" s="46">
+        <f t="shared" si="6"/>
+        <v>3.1620553359683794</v>
+      </c>
+      <c r="J42" s="46">
+        <f t="shared" si="6"/>
+        <v>3.1620553359683794</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="B43" s="49">
+        <v>3.2</v>
+      </c>
+      <c r="C43" s="49">
+        <v>3.2</v>
+      </c>
+      <c r="D43" s="48">
+        <v>3.2</v>
+      </c>
+      <c r="G43" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="H43" s="46">
+        <f t="shared" si="6"/>
+        <v>4.2160737812911728</v>
+      </c>
+      <c r="I43" s="46">
+        <f t="shared" si="6"/>
+        <v>4.2160737812911728</v>
+      </c>
+      <c r="J43" s="46">
+        <f t="shared" si="6"/>
+        <v>4.2160737812911728</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="B44" s="49">
+        <v>2.4</v>
+      </c>
+      <c r="C44" s="49">
+        <v>2.4</v>
+      </c>
+      <c r="D44" s="48">
+        <v>2.4</v>
+      </c>
+      <c r="G44" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="H44" s="46">
+        <f t="shared" si="6"/>
+        <v>3.1620553359683794</v>
+      </c>
+      <c r="I44" s="46">
+        <f t="shared" si="6"/>
+        <v>3.1620553359683794</v>
+      </c>
+      <c r="J44" s="46">
+        <f t="shared" si="6"/>
+        <v>3.1620553359683794</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="B45" s="49">
+        <v>3.2</v>
+      </c>
+      <c r="C45" s="49">
+        <v>3.2</v>
+      </c>
+      <c r="D45" s="48">
+        <v>3.2</v>
+      </c>
+      <c r="G45" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="H45" s="46">
+        <f t="shared" si="6"/>
+        <v>4.2160737812911728</v>
+      </c>
+      <c r="I45" s="46">
+        <f t="shared" si="6"/>
+        <v>4.2160737812911728</v>
+      </c>
+      <c r="J45" s="46">
+        <f t="shared" si="6"/>
+        <v>4.2160737812911728</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="B46" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="C46" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="D46" s="48">
+        <v>0.8</v>
+      </c>
+      <c r="G46" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="H46" s="46">
+        <f t="shared" si="6"/>
+        <v>1.0540184453227932</v>
+      </c>
+      <c r="I46" s="46">
+        <f t="shared" si="6"/>
+        <v>1.0540184453227932</v>
+      </c>
+      <c r="J46" s="46">
+        <f t="shared" si="6"/>
+        <v>1.0540184453227932</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="48">
+        <v>0.8</v>
+      </c>
+      <c r="G47" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46">
+        <f t="shared" ref="J47:J55" si="7">D47*$N$1</f>
+        <v>1.0540184453227932</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="B48" s="49">
+        <v>2.8</v>
+      </c>
+      <c r="C48" s="49">
+        <v>2.8</v>
+      </c>
+      <c r="D48" s="48">
+        <v>2.8</v>
+      </c>
+      <c r="G48" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="H48" s="46">
+        <f t="shared" ref="H48:I55" si="8">B48*$N$1</f>
+        <v>3.6890645586297759</v>
+      </c>
+      <c r="I48" s="46">
+        <f t="shared" si="8"/>
+        <v>3.6890645586297759</v>
+      </c>
+      <c r="J48" s="46">
+        <f t="shared" si="7"/>
+        <v>3.6890645586297759</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="B49" s="49">
+        <v>1.8</v>
+      </c>
+      <c r="C49" s="49">
+        <v>1.8</v>
+      </c>
+      <c r="D49" s="48">
+        <v>1.8</v>
+      </c>
+      <c r="G49" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="H49" s="46">
+        <f t="shared" si="8"/>
+        <v>2.3715415019762847</v>
+      </c>
+      <c r="I49" s="46">
+        <f t="shared" si="8"/>
+        <v>2.3715415019762847</v>
+      </c>
+      <c r="J49" s="46">
+        <f t="shared" si="7"/>
+        <v>2.3715415019762847</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="B50" s="49">
+        <v>3.6</v>
+      </c>
+      <c r="C50" s="49">
+        <v>3.6</v>
+      </c>
+      <c r="D50" s="48">
+        <v>3.6</v>
+      </c>
+      <c r="G50" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="H50" s="46">
+        <f t="shared" si="8"/>
+        <v>4.7430830039525693</v>
+      </c>
+      <c r="I50" s="46">
+        <f t="shared" si="8"/>
+        <v>4.7430830039525693</v>
+      </c>
+      <c r="J50" s="46">
+        <f t="shared" si="7"/>
+        <v>4.7430830039525693</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="B51" s="49">
+        <v>4.2</v>
+      </c>
+      <c r="C51" s="49">
+        <v>4.2</v>
+      </c>
+      <c r="D51" s="48">
+        <v>4.2</v>
+      </c>
+      <c r="G51" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="H51" s="46">
+        <f t="shared" si="8"/>
+        <v>5.5335968379446641</v>
+      </c>
+      <c r="I51" s="46">
+        <f t="shared" si="8"/>
+        <v>5.5335968379446641</v>
+      </c>
+      <c r="J51" s="46">
+        <f t="shared" si="7"/>
+        <v>5.5335968379446641</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="B52" s="49">
+        <v>5</v>
+      </c>
+      <c r="C52" s="49">
+        <v>5</v>
+      </c>
+      <c r="D52" s="48">
+        <v>5</v>
+      </c>
+      <c r="G52" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="H52" s="46">
+        <f t="shared" si="8"/>
+        <v>6.587615283267457</v>
+      </c>
+      <c r="I52" s="46">
+        <f t="shared" si="8"/>
+        <v>6.587615283267457</v>
+      </c>
+      <c r="J52" s="46">
+        <f t="shared" si="7"/>
+        <v>6.587615283267457</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="B53" s="49">
+        <v>0</v>
+      </c>
+      <c r="C53" s="49">
+        <v>0</v>
+      </c>
+      <c r="D53" s="48">
+        <v>0</v>
+      </c>
+      <c r="G53" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="H53" s="46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="B54" s="49">
+        <v>0</v>
+      </c>
+      <c r="C54" s="49">
+        <v>0</v>
+      </c>
+      <c r="D54" s="48">
+        <v>0</v>
+      </c>
+      <c r="G54" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="H54" s="46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="B55" s="49">
+        <v>0</v>
+      </c>
+      <c r="C55" s="49">
+        <v>0</v>
+      </c>
+      <c r="D55" s="48">
+        <v>0</v>
+      </c>
+      <c r="G55" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="H55" s="46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="G56" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="H56" s="45"/>
+      <c r="I56" s="45"/>
+      <c r="J56" s="45"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="B57" s="45"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
+      <c r="G57" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="H57" s="45"/>
+      <c r="I57" s="45"/>
+      <c r="J57" s="45"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N139"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.36328125" customWidth="1"/>
-    <col min="2" max="2" width="24.1796875" customWidth="1"/>
-    <col min="3" max="3" width="26.6328125" customWidth="1"/>
-    <col min="4" max="4" width="26.36328125" customWidth="1"/>
-    <col min="5" max="5" width="28.81640625" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>82</v>
       </c>
@@ -5316,7 +7041,7 @@
       <c r="I1" s="26"/>
       <c r="J1" s="26"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -5328,7 +7053,7 @@
       <c r="I2" s="26"/>
       <c r="J2" s="26"/>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>83</v>
       </c>
@@ -5342,7 +7067,7 @@
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
     </row>
-    <row r="4" spans="1:10" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32"/>
       <c r="B4" s="33" t="s">
         <v>84</v>
@@ -5369,7 +7094,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="35"/>
       <c r="B5" s="36" t="s">
         <v>91</v>
@@ -5394,7 +7119,7 @@
       </c>
       <c r="I5" s="26"/>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
         <v>97</v>
       </c>
@@ -5423,7 +7148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
         <v>98</v>
       </c>
@@ -5452,7 +7177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
         <v>99</v>
       </c>
@@ -5481,7 +7206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>100</v>
       </c>
@@ -5510,7 +7235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
         <v>101</v>
       </c>
@@ -5539,7 +7264,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
         <v>102</v>
       </c>
@@ -5568,7 +7293,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
         <v>103</v>
       </c>
@@ -5597,7 +7322,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
         <v>104</v>
       </c>
@@ -5626,7 +7351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
         <v>105</v>
       </c>
@@ -5655,7 +7380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
         <v>106</v>
       </c>
@@ -5684,7 +7409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
         <v>107</v>
       </c>
@@ -5713,7 +7438,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
         <v>108</v>
       </c>
@@ -5742,7 +7467,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
         <v>109</v>
       </c>
@@ -5771,7 +7496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
         <v>110</v>
       </c>
@@ -5800,7 +7525,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
         <v>111</v>
       </c>
@@ -5829,7 +7554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
         <v>83</v>
       </c>
@@ -5842,7 +7567,7 @@
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
     </row>
-    <row r="23" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="32"/>
       <c r="B23" s="33" t="s">
         <v>116</v>
@@ -5869,7 +7594,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="35"/>
       <c r="B24" s="36" t="s">
         <v>117</v>
@@ -5894,7 +7619,7 @@
       </c>
       <c r="I24" s="26"/>
     </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
         <v>97</v>
       </c>
@@ -5923,7 +7648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="35" t="s">
         <v>98</v>
       </c>
@@ -5952,7 +7677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
         <v>99</v>
       </c>
@@ -5981,7 +7706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
         <v>100</v>
       </c>
@@ -6010,7 +7735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="35" t="s">
         <v>101</v>
       </c>
@@ -6039,7 +7764,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="35" t="s">
         <v>102</v>
       </c>
@@ -6068,7 +7793,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="35" t="s">
         <v>103</v>
       </c>
@@ -6097,7 +7822,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="35" t="s">
         <v>104</v>
       </c>
@@ -6126,7 +7851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
         <v>105</v>
       </c>
@@ -6155,7 +7880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="35" t="s">
         <v>106</v>
       </c>
@@ -6184,7 +7909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
         <v>107</v>
       </c>
@@ -6213,7 +7938,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
         <v>108</v>
       </c>
@@ -6242,7 +7967,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="35" t="s">
         <v>109</v>
       </c>
@@ -6271,7 +7996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="35" t="s">
         <v>110</v>
       </c>
@@ -6300,7 +8025,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="39" t="s">
         <v>111</v>
       </c>
@@ -6329,7 +8054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="31" t="s">
         <v>83</v>
       </c>
@@ -6342,7 +8067,7 @@
       <c r="H41" s="26"/>
       <c r="I41" s="26"/>
     </row>
-    <row r="42" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="32" t="s">
         <v>130</v>
       </c>
@@ -6371,7 +8096,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="35" t="s">
         <v>129</v>
       </c>
@@ -6398,7 +8123,7 @@
       </c>
       <c r="I43" s="26"/>
     </row>
-    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="35" t="s">
         <v>97</v>
       </c>
@@ -6430,7 +8155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="35" t="s">
         <v>98</v>
       </c>
@@ -6462,7 +8187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="35" t="s">
         <v>99</v>
       </c>
@@ -6494,7 +8219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="s">
         <v>100</v>
       </c>
@@ -6526,7 +8251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="35" t="s">
         <v>101</v>
       </c>
@@ -6558,7 +8283,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="35" t="s">
         <v>102</v>
       </c>
@@ -6590,7 +8315,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="35" t="s">
         <v>103</v>
       </c>
@@ -6622,7 +8347,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="35" t="s">
         <v>104</v>
       </c>
@@ -6654,7 +8379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="35" t="s">
         <v>105</v>
       </c>
@@ -6686,7 +8411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="35" t="s">
         <v>106</v>
       </c>
@@ -6719,7 +8444,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35" t="s">
         <v>107</v>
       </c>
@@ -6751,7 +8476,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35" t="s">
         <v>108</v>
       </c>
@@ -6784,7 +8509,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35" t="s">
         <v>109</v>
       </c>
@@ -6816,7 +8541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="35" t="s">
         <v>110</v>
       </c>
@@ -6849,7 +8574,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="39" t="s">
         <v>111</v>
       </c>
@@ -6881,14 +8606,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>140</v>
       </c>
       <c r="B60" s="26"/>
       <c r="C60" s="26"/>
     </row>
-    <row r="61" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
         <v>143</v>
       </c>
@@ -6905,7 +8630,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="26" t="s">
         <v>139</v>
       </c>
@@ -6924,7 +8649,7 @@
         <v>2.9099999999999997E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="26" t="s">
         <v>141</v>
       </c>
@@ -6943,7 +8668,7 @@
         <v>2.9099999999999997E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="26" t="s">
         <v>141</v>
       </c>
@@ -6962,7 +8687,7 @@
         <v>2.9099999999999997E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="26" t="s">
         <v>141</v>
       </c>
@@ -6981,7 +8706,7 @@
         <v>2.9099999999999997E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="26" t="s">
         <v>141</v>
       </c>
@@ -7000,14 +8725,14 @@
         <v>2.9099999999999997E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="68" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="69" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="26" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="26" t="s">
         <v>129</v>
       </c>
@@ -7030,7 +8755,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="26" t="s">
         <v>149</v>
       </c>
@@ -7056,14 +8781,14 @@
         <v>111.72149999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>159</v>
       </c>
       <c r="B73" s="28"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>154</v>
       </c>
@@ -7080,7 +8805,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>41</v>
       </c>
@@ -7103,22 +8828,22 @@
         <v>138</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="77" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <f>AVERAGE('Nuclear Fixed O&amp;M Calcs'!H26:J26)</f>
         <v>118.57707509881423</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="80" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="81" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="40" t="s">
         <v>131</v>
       </c>
@@ -7132,7 +8857,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>4</v>
       </c>
@@ -7146,7 +8871,7 @@
         <v>48.690858980248052</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>2</v>
       </c>
@@ -7160,7 +8885,7 @@
         <v>38.967998775072729</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>5</v>
       </c>
@@ -7174,7 +8899,7 @@
         <v>199.05068136579391</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>3</v>
       </c>
@@ -7188,7 +8913,7 @@
         <v>87.888531618435167</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>21</v>
       </c>
@@ -7202,7 +8927,7 @@
         <v>35.216659010871233</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>6</v>
       </c>
@@ -7216,7 +8941,7 @@
         <v>61.246363497167359</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>74</v>
       </c>
@@ -7230,7 +8955,7 @@
         <v>26.642168121267801</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>73</v>
       </c>
@@ -7244,7 +8969,7 @@
         <v>37.666513550757927</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>18</v>
       </c>
@@ -7261,7 +8986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>36</v>
       </c>
@@ -7278,7 +9003,7 @@
         <v>111.72149999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>41</v>
       </c>
@@ -7294,23 +9019,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="97" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="98" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="99" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="100" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="101" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="102" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="103" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="104" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="105" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="106" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="107" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="108" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="109" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="110" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="111" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="116" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B95">
+        <f>SUM(C45:C47)/3</f>
+        <v>2332.4656765171235</v>
+      </c>
+      <c r="C95">
+        <f>SUM(F45:F47)/3</f>
+        <v>3.1643954473536469</v>
+      </c>
+      <c r="D95">
+        <f>SUM(E45:E47)/3</f>
+        <v>39.299749910682387</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B96" s="5">
+        <f>C44</f>
+        <v>2694.8399938753637</v>
+      </c>
+      <c r="C96" s="5">
+        <f>F44</f>
+        <v>3.7054049915786251</v>
+      </c>
+      <c r="D96" s="5">
+        <f>E44</f>
+        <v>37.972745368243764</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B97" s="5">
+        <f>C53</f>
+        <v>3766.6513550757918</v>
+      </c>
+      <c r="C97" s="5">
+        <f>F53</f>
+        <v>0</v>
+      </c>
+      <c r="D97" s="5">
+        <f>E53</f>
+        <v>183.73909049150208</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B116" s="28" t="s">
         <v>75</v>
       </c>
@@ -7318,7 +9092,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>71</v>
       </c>
@@ -7329,7 +9103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>72</v>
       </c>
@@ -7343,7 +9117,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>73</v>
       </c>
@@ -7357,7 +9131,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>74</v>
       </c>
@@ -7374,7 +9148,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -7388,7 +9162,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>51</v>
       </c>
@@ -7402,7 +9176,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>21</v>
       </c>
@@ -7416,7 +9190,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>18</v>
       </c>
@@ -7430,7 +9204,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>36</v>
       </c>
@@ -7444,7 +9218,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>41</v>
       </c>
@@ -7455,17 +9229,17 @@
         <v>68</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I127" s="27" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I128" s="27" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>2</v>
       </c>
@@ -7477,7 +9251,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>73</v>
       </c>
@@ -7491,7 +9265,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>3</v>
       </c>
@@ -7502,7 +9276,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
         <v>5</v>
       </c>
@@ -7513,43 +9287,43 @@
         <v>81</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B133" s="26"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B134" s="26"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B135" s="26"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B136" s="26"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B137" s="26"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B138" s="26"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>74</v>
       </c>
@@ -7569,1466 +9343,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N57"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="25.7265625" style="26" customWidth="1"/>
-    <col min="2" max="6" width="8.7265625" style="26"/>
-    <col min="7" max="7" width="25.7265625" style="26" customWidth="1"/>
-    <col min="8" max="12" width="8.7265625" style="26"/>
-    <col min="13" max="13" width="15.54296875" style="26" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="26"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="G1" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="M1" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="N1" s="26">
-        <f>1/0.759</f>
-        <v>1.3175230566534915</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
-        <v>207</v>
-      </c>
-      <c r="B2" s="55">
-        <v>2025</v>
-      </c>
-      <c r="C2" s="55">
-        <v>2035</v>
-      </c>
-      <c r="D2" s="54">
-        <v>2050</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>207</v>
-      </c>
-      <c r="H2" s="52">
-        <v>2025</v>
-      </c>
-      <c r="I2" s="52">
-        <v>2035</v>
-      </c>
-      <c r="J2" s="51">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="B3" s="58">
-        <v>1550</v>
-      </c>
-      <c r="C3" s="62">
-        <v>1550</v>
-      </c>
-      <c r="D3" s="61">
-        <v>1550</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="H3" s="58">
-        <f>B3*$N$1</f>
-        <v>2042.1607378129117</v>
-      </c>
-      <c r="I3" s="58">
-        <f>C3*$N$1</f>
-        <v>2042.1607378129117</v>
-      </c>
-      <c r="J3" s="58">
-        <f>D3*$N$1</f>
-        <v>2042.1607378129117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="B4" s="58">
-        <v>2600</v>
-      </c>
-      <c r="C4" s="62">
-        <v>2500</v>
-      </c>
-      <c r="D4" s="61">
-        <v>2400</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="H4" s="58">
-        <f>B4*$N$1</f>
-        <v>3425.559947299078</v>
-      </c>
-      <c r="I4" s="58">
-        <f>C4*$N$1</f>
-        <v>3293.8076416337285</v>
-      </c>
-      <c r="J4" s="58">
-        <f>D4*$N$1</f>
-        <v>3162.0553359683795</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="47" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" s="58">
-        <v>1700</v>
-      </c>
-      <c r="C5" s="62">
-        <v>1700</v>
-      </c>
-      <c r="D5" s="61">
-        <v>1700</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>204</v>
-      </c>
-      <c r="H5" s="58">
-        <f>B5*$N$1</f>
-        <v>2239.7891963109355</v>
-      </c>
-      <c r="I5" s="58">
-        <f>C5*$N$1</f>
-        <v>2239.7891963109355</v>
-      </c>
-      <c r="J5" s="58">
-        <f>D5*$N$1</f>
-        <v>2239.7891963109355</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="B6" s="58">
-        <v>2750</v>
-      </c>
-      <c r="C6" s="62">
-        <v>2650</v>
-      </c>
-      <c r="D6" s="61">
-        <v>2550</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="H6" s="58">
-        <f>B6*$N$1</f>
-        <v>3623.1884057971015</v>
-      </c>
-      <c r="I6" s="58">
-        <f>C6*$N$1</f>
-        <v>3491.4361001317525</v>
-      </c>
-      <c r="J6" s="58">
-        <f>D6*$N$1</f>
-        <v>3359.683794466403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="B7" s="58">
-        <v>4000</v>
-      </c>
-      <c r="C7" s="62">
-        <v>3850</v>
-      </c>
-      <c r="D7" s="61">
-        <v>3650</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="H7" s="58">
-        <f>B7*$N$1</f>
-        <v>5270.092226613966</v>
-      </c>
-      <c r="I7" s="58">
-        <f>C7*$N$1</f>
-        <v>5072.463768115942</v>
-      </c>
-      <c r="J7" s="58">
-        <f>D7*$N$1</f>
-        <v>4808.959156785244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="B8" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="C8" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="D8" s="61">
-        <v>4150</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58">
-        <f>D8*$N$1</f>
-        <v>5467.72068511199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="B9" s="60">
-        <v>400</v>
-      </c>
-      <c r="C9" s="62">
-        <v>400</v>
-      </c>
-      <c r="D9" s="59">
-        <v>400</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="H9" s="58">
-        <f>B9*$N$1</f>
-        <v>527.00922266139662</v>
-      </c>
-      <c r="I9" s="58">
-        <f>C9*$N$1</f>
-        <v>527.00922266139662</v>
-      </c>
-      <c r="J9" s="58">
-        <f>D9*$N$1</f>
-        <v>527.00922266139662</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="47" t="s">
-        <v>199</v>
-      </c>
-      <c r="B10" s="60">
-        <v>850</v>
-      </c>
-      <c r="C10" s="60">
-        <v>850</v>
-      </c>
-      <c r="D10" s="59">
-        <v>850</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>199</v>
-      </c>
-      <c r="H10" s="58">
-        <f>B10*$N$1</f>
-        <v>1119.8945981554677</v>
-      </c>
-      <c r="I10" s="58">
-        <f>C10*$N$1</f>
-        <v>1119.8945981554677</v>
-      </c>
-      <c r="J10" s="58">
-        <f>D10*$N$1</f>
-        <v>1119.8945981554677</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="B11" s="58">
-        <v>2250</v>
-      </c>
-      <c r="C11" s="62">
-        <v>2100</v>
-      </c>
-      <c r="D11" s="61">
-        <v>2100</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="H11" s="58">
-        <f>B11*$N$1</f>
-        <v>2964.426877470356</v>
-      </c>
-      <c r="I11" s="58">
-        <f>C11*$N$1</f>
-        <v>2766.798418972332</v>
-      </c>
-      <c r="J11" s="58">
-        <f>D11*$N$1</f>
-        <v>2766.798418972332</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="B12" s="58">
-        <v>3100</v>
-      </c>
-      <c r="C12" s="62">
-        <v>2900</v>
-      </c>
-      <c r="D12" s="61">
-        <v>2700</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="H12" s="58">
-        <f>B12*$N$1</f>
-        <v>4084.3214756258235</v>
-      </c>
-      <c r="I12" s="58">
-        <f>C12*$N$1</f>
-        <v>3820.816864295125</v>
-      </c>
-      <c r="J12" s="58">
-        <f>D12*$N$1</f>
-        <v>3557.312252964427</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="B13" s="58">
-        <v>2400</v>
-      </c>
-      <c r="C13" s="62">
-        <v>1950</v>
-      </c>
-      <c r="D13" s="61">
-        <v>1800</v>
-      </c>
-      <c r="G13" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="H13" s="58">
-        <f>B13*$N$1</f>
-        <v>3162.0553359683795</v>
-      </c>
-      <c r="I13" s="58">
-        <f>C13*$N$1</f>
-        <v>2569.1699604743085</v>
-      </c>
-      <c r="J13" s="58">
-        <f>D13*$N$1</f>
-        <v>2371.5415019762845</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="47" t="s">
-        <v>211</v>
-      </c>
-      <c r="B14" s="58">
-        <v>1350</v>
-      </c>
-      <c r="C14" s="62">
-        <v>1300</v>
-      </c>
-      <c r="D14" s="61">
-        <v>1250</v>
-      </c>
-      <c r="G14" s="47" t="s">
-        <v>211</v>
-      </c>
-      <c r="H14" s="58">
-        <f>B14*$N$1</f>
-        <v>1778.6561264822135</v>
-      </c>
-      <c r="I14" s="58">
-        <f>C14*$N$1</f>
-        <v>1712.779973649539</v>
-      </c>
-      <c r="J14" s="58">
-        <f>D14*$N$1</f>
-        <v>1646.9038208168643</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="B15" s="58">
-        <v>2550</v>
-      </c>
-      <c r="C15" s="62">
-        <v>2350</v>
-      </c>
-      <c r="D15" s="61">
-        <v>2200</v>
-      </c>
-      <c r="G15" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="H15" s="58">
-        <f>B15*$N$1</f>
-        <v>3359.683794466403</v>
-      </c>
-      <c r="I15" s="58">
-        <f>C15*$N$1</f>
-        <v>3096.179183135705</v>
-      </c>
-      <c r="J15" s="58">
-        <f>D15*$N$1</f>
-        <v>2898.550724637681</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="47" t="s">
-        <v>193</v>
-      </c>
-      <c r="B16" s="58">
-        <v>1350</v>
-      </c>
-      <c r="C16" s="62">
-        <v>1200</v>
-      </c>
-      <c r="D16" s="61">
-        <v>1100</v>
-      </c>
-      <c r="G16" s="47" t="s">
-        <v>193</v>
-      </c>
-      <c r="H16" s="58">
-        <f>B16*$N$1</f>
-        <v>1778.6561264822135</v>
-      </c>
-      <c r="I16" s="58">
-        <f>C16*$N$1</f>
-        <v>1581.0276679841897</v>
-      </c>
-      <c r="J16" s="58">
-        <f>D16*$N$1</f>
-        <v>1449.2753623188405</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="G17" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="G18" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="57" t="s">
-        <v>212</v>
-      </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="G20" s="57" t="s">
-        <v>212</v>
-      </c>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="56" t="s">
-        <v>207</v>
-      </c>
-      <c r="B21" s="55">
-        <v>2025</v>
-      </c>
-      <c r="C21" s="55">
-        <v>2035</v>
-      </c>
-      <c r="D21" s="54">
-        <v>2050</v>
-      </c>
-      <c r="G21" s="53" t="s">
-        <v>207</v>
-      </c>
-      <c r="H21" s="52">
-        <v>2025</v>
-      </c>
-      <c r="I21" s="52">
-        <v>2035</v>
-      </c>
-      <c r="J21" s="51">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="B22" s="60">
-        <v>36</v>
-      </c>
-      <c r="C22" s="60">
-        <v>36</v>
-      </c>
-      <c r="D22" s="59">
-        <v>36</v>
-      </c>
-      <c r="G22" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="H22" s="58">
-        <f>B22*$N$1</f>
-        <v>47.430830039525695</v>
-      </c>
-      <c r="I22" s="58">
-        <f>C22*$N$1</f>
-        <v>47.430830039525695</v>
-      </c>
-      <c r="J22" s="58">
-        <f>D22*$N$1</f>
-        <v>47.430830039525695</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="B23" s="60">
-        <v>62</v>
-      </c>
-      <c r="C23" s="60">
-        <v>58</v>
-      </c>
-      <c r="D23" s="59">
-        <v>52</v>
-      </c>
-      <c r="G23" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="H23" s="58">
-        <f>B23*$N$1</f>
-        <v>81.686429512516469</v>
-      </c>
-      <c r="I23" s="58">
-        <f>C23*$N$1</f>
-        <v>76.4163372859025</v>
-      </c>
-      <c r="J23" s="58">
-        <f>D23*$N$1</f>
-        <v>68.511198945981562</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="47" t="s">
-        <v>204</v>
-      </c>
-      <c r="B24" s="60">
-        <v>40</v>
-      </c>
-      <c r="C24" s="60">
-        <v>40</v>
-      </c>
-      <c r="D24" s="59">
-        <v>40</v>
-      </c>
-      <c r="G24" s="47" t="s">
-        <v>204</v>
-      </c>
-      <c r="H24" s="58">
-        <f>B24*$N$1</f>
-        <v>52.700922266139656</v>
-      </c>
-      <c r="I24" s="58">
-        <f>C24*$N$1</f>
-        <v>52.700922266139656</v>
-      </c>
-      <c r="J24" s="58">
-        <f>D24*$N$1</f>
-        <v>52.700922266139656</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="B25" s="60">
-        <v>66</v>
-      </c>
-      <c r="C25" s="60">
-        <v>60</v>
-      </c>
-      <c r="D25" s="59">
-        <v>56</v>
-      </c>
-      <c r="G25" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="H25" s="58">
-        <f>B25*$N$1</f>
-        <v>86.956521739130437</v>
-      </c>
-      <c r="I25" s="58">
-        <f>C25*$N$1</f>
-        <v>79.051383399209485</v>
-      </c>
-      <c r="J25" s="58">
-        <f>D25*$N$1</f>
-        <v>73.781291172595516</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="B26" s="60">
-        <v>90</v>
-      </c>
-      <c r="C26" s="60">
-        <v>90</v>
-      </c>
-      <c r="D26" s="59">
-        <v>90</v>
-      </c>
-      <c r="G26" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="H26" s="64">
-        <f>B26*$N$1</f>
-        <v>118.57707509881423</v>
-      </c>
-      <c r="I26" s="64">
-        <f>C26*$N$1</f>
-        <v>118.57707509881423</v>
-      </c>
-      <c r="J26" s="64">
-        <f>D26*$N$1</f>
-        <v>118.57707509881423</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="59">
-        <v>80</v>
-      </c>
-      <c r="G27" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58">
-        <f>D27*$N$1</f>
-        <v>105.40184453227931</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="B28" s="60">
-        <v>10</v>
-      </c>
-      <c r="C28" s="60">
-        <v>10</v>
-      </c>
-      <c r="D28" s="59">
-        <v>10</v>
-      </c>
-      <c r="G28" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="H28" s="58">
-        <f>B28*$N$1</f>
-        <v>13.175230566534914</v>
-      </c>
-      <c r="I28" s="58">
-        <f>C28*$N$1</f>
-        <v>13.175230566534914</v>
-      </c>
-      <c r="J28" s="58">
-        <f>D28*$N$1</f>
-        <v>13.175230566534914</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="47" t="s">
-        <v>199</v>
-      </c>
-      <c r="B29" s="60">
-        <v>18</v>
-      </c>
-      <c r="C29" s="60">
-        <v>18</v>
-      </c>
-      <c r="D29" s="59">
-        <v>18</v>
-      </c>
-      <c r="G29" s="47" t="s">
-        <v>199</v>
-      </c>
-      <c r="H29" s="58">
-        <f>B29*$N$1</f>
-        <v>23.715415019762847</v>
-      </c>
-      <c r="I29" s="58">
-        <f>C29*$N$1</f>
-        <v>23.715415019762847</v>
-      </c>
-      <c r="J29" s="58">
-        <f>D29*$N$1</f>
-        <v>23.715415019762847</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="B30" s="60">
-        <v>58</v>
-      </c>
-      <c r="C30" s="60">
-        <v>56</v>
-      </c>
-      <c r="D30" s="59">
-        <v>54</v>
-      </c>
-      <c r="G30" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="H30" s="58">
-        <f>B30*$N$1</f>
-        <v>76.4163372859025</v>
-      </c>
-      <c r="I30" s="58">
-        <f>C30*$N$1</f>
-        <v>73.781291172595516</v>
-      </c>
-      <c r="J30" s="58">
-        <f>D30*$N$1</f>
-        <v>71.146245059288532</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="B31" s="60">
-        <v>64</v>
-      </c>
-      <c r="C31" s="60">
-        <v>62</v>
-      </c>
-      <c r="D31" s="59">
-        <v>60</v>
-      </c>
-      <c r="G31" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="H31" s="58">
-        <f>B31*$N$1</f>
-        <v>84.321475625823453</v>
-      </c>
-      <c r="I31" s="58">
-        <f>C31*$N$1</f>
-        <v>81.686429512516469</v>
-      </c>
-      <c r="J31" s="58">
-        <f>D31*$N$1</f>
-        <v>79.051383399209485</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="B32" s="60">
-        <v>70</v>
-      </c>
-      <c r="C32" s="60">
-        <v>70</v>
-      </c>
-      <c r="D32" s="59">
-        <v>70</v>
-      </c>
-      <c r="G32" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="H32" s="58">
-        <f>B32*$N$1</f>
-        <v>92.226613965744406</v>
-      </c>
-      <c r="I32" s="58">
-        <f>C32*$N$1</f>
-        <v>92.226613965744406</v>
-      </c>
-      <c r="J32" s="58">
-        <f>D32*$N$1</f>
-        <v>92.226613965744406</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="47" t="s">
-        <v>211</v>
-      </c>
-      <c r="B33" s="60">
-        <v>40</v>
-      </c>
-      <c r="C33" s="60">
-        <v>40</v>
-      </c>
-      <c r="D33" s="59">
-        <v>40</v>
-      </c>
-      <c r="G33" s="47" t="s">
-        <v>211</v>
-      </c>
-      <c r="H33" s="58">
-        <f>B33*$N$1</f>
-        <v>52.700922266139656</v>
-      </c>
-      <c r="I33" s="58">
-        <f>C33*$N$1</f>
-        <v>52.700922266139656</v>
-      </c>
-      <c r="J33" s="58">
-        <f>D33*$N$1</f>
-        <v>52.700922266139656</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="B34" s="60">
-        <v>95</v>
-      </c>
-      <c r="C34" s="60">
-        <v>85</v>
-      </c>
-      <c r="D34" s="59">
-        <v>80</v>
-      </c>
-      <c r="G34" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="H34" s="58">
-        <f>B34*$N$1</f>
-        <v>125.16469038208169</v>
-      </c>
-      <c r="I34" s="58">
-        <f>C34*$N$1</f>
-        <v>111.98945981554678</v>
-      </c>
-      <c r="J34" s="58">
-        <f>D34*$N$1</f>
-        <v>105.40184453227931</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="47" t="s">
-        <v>193</v>
-      </c>
-      <c r="B35" s="60">
-        <v>20</v>
-      </c>
-      <c r="C35" s="60">
-        <v>20</v>
-      </c>
-      <c r="D35" s="59">
-        <v>20</v>
-      </c>
-      <c r="G35" s="47" t="s">
-        <v>193</v>
-      </c>
-      <c r="H35" s="58">
-        <f>B35*$N$1</f>
-        <v>26.350461133069828</v>
-      </c>
-      <c r="I35" s="58">
-        <f>C35*$N$1</f>
-        <v>26.350461133069828</v>
-      </c>
-      <c r="J35" s="58">
-        <f>D35*$N$1</f>
-        <v>26.350461133069828</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="G36" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="G37" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="57" t="s">
-        <v>209</v>
-      </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="G39" s="57" t="s">
-        <v>209</v>
-      </c>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="57" t="s">
-        <v>208</v>
-      </c>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="G40" s="57" t="s">
-        <v>208</v>
-      </c>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="56" t="s">
-        <v>207</v>
-      </c>
-      <c r="B41" s="55">
-        <v>2025</v>
-      </c>
-      <c r="C41" s="55">
-        <v>2035</v>
-      </c>
-      <c r="D41" s="54">
-        <v>2050</v>
-      </c>
-      <c r="G41" s="53" t="s">
-        <v>207</v>
-      </c>
-      <c r="H41" s="52">
-        <v>2025</v>
-      </c>
-      <c r="I41" s="52">
-        <v>2035</v>
-      </c>
-      <c r="J41" s="51">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="B42" s="49">
-        <v>2.4</v>
-      </c>
-      <c r="C42" s="49">
-        <v>2.4</v>
-      </c>
-      <c r="D42" s="48">
-        <v>2.4</v>
-      </c>
-      <c r="G42" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="H42" s="46">
-        <f>B42*$N$1</f>
-        <v>3.1620553359683794</v>
-      </c>
-      <c r="I42" s="46">
-        <f>C42*$N$1</f>
-        <v>3.1620553359683794</v>
-      </c>
-      <c r="J42" s="46">
-        <f>D42*$N$1</f>
-        <v>3.1620553359683794</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="B43" s="49">
-        <v>3.2</v>
-      </c>
-      <c r="C43" s="49">
-        <v>3.2</v>
-      </c>
-      <c r="D43" s="48">
-        <v>3.2</v>
-      </c>
-      <c r="G43" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="H43" s="46">
-        <f>B43*$N$1</f>
-        <v>4.2160737812911728</v>
-      </c>
-      <c r="I43" s="46">
-        <f>C43*$N$1</f>
-        <v>4.2160737812911728</v>
-      </c>
-      <c r="J43" s="46">
-        <f>D43*$N$1</f>
-        <v>4.2160737812911728</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44" s="47" t="s">
-        <v>204</v>
-      </c>
-      <c r="B44" s="49">
-        <v>2.4</v>
-      </c>
-      <c r="C44" s="49">
-        <v>2.4</v>
-      </c>
-      <c r="D44" s="48">
-        <v>2.4</v>
-      </c>
-      <c r="G44" s="47" t="s">
-        <v>204</v>
-      </c>
-      <c r="H44" s="46">
-        <f>B44*$N$1</f>
-        <v>3.1620553359683794</v>
-      </c>
-      <c r="I44" s="46">
-        <f>C44*$N$1</f>
-        <v>3.1620553359683794</v>
-      </c>
-      <c r="J44" s="46">
-        <f>D44*$N$1</f>
-        <v>3.1620553359683794</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A45" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="B45" s="49">
-        <v>3.2</v>
-      </c>
-      <c r="C45" s="49">
-        <v>3.2</v>
-      </c>
-      <c r="D45" s="48">
-        <v>3.2</v>
-      </c>
-      <c r="G45" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="H45" s="46">
-        <f>B45*$N$1</f>
-        <v>4.2160737812911728</v>
-      </c>
-      <c r="I45" s="46">
-        <f>C45*$N$1</f>
-        <v>4.2160737812911728</v>
-      </c>
-      <c r="J45" s="46">
-        <f>D45*$N$1</f>
-        <v>4.2160737812911728</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="B46" s="49">
-        <v>0.8</v>
-      </c>
-      <c r="C46" s="49">
-        <v>0.8</v>
-      </c>
-      <c r="D46" s="48">
-        <v>0.8</v>
-      </c>
-      <c r="G46" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="H46" s="46">
-        <f>B46*$N$1</f>
-        <v>1.0540184453227932</v>
-      </c>
-      <c r="I46" s="46">
-        <f>C46*$N$1</f>
-        <v>1.0540184453227932</v>
-      </c>
-      <c r="J46" s="46">
-        <f>D46*$N$1</f>
-        <v>1.0540184453227932</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="48">
-        <v>0.8</v>
-      </c>
-      <c r="G47" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46">
-        <f>D47*$N$1</f>
-        <v>1.0540184453227932</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A48" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="B48" s="49">
-        <v>2.8</v>
-      </c>
-      <c r="C48" s="49">
-        <v>2.8</v>
-      </c>
-      <c r="D48" s="48">
-        <v>2.8</v>
-      </c>
-      <c r="G48" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="H48" s="46">
-        <f>B48*$N$1</f>
-        <v>3.6890645586297759</v>
-      </c>
-      <c r="I48" s="46">
-        <f>C48*$N$1</f>
-        <v>3.6890645586297759</v>
-      </c>
-      <c r="J48" s="46">
-        <f>D48*$N$1</f>
-        <v>3.6890645586297759</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A49" s="47" t="s">
-        <v>199</v>
-      </c>
-      <c r="B49" s="49">
-        <v>1.8</v>
-      </c>
-      <c r="C49" s="49">
-        <v>1.8</v>
-      </c>
-      <c r="D49" s="48">
-        <v>1.8</v>
-      </c>
-      <c r="G49" s="47" t="s">
-        <v>199</v>
-      </c>
-      <c r="H49" s="46">
-        <f>B49*$N$1</f>
-        <v>2.3715415019762847</v>
-      </c>
-      <c r="I49" s="46">
-        <f>C49*$N$1</f>
-        <v>2.3715415019762847</v>
-      </c>
-      <c r="J49" s="46">
-        <f>D49*$N$1</f>
-        <v>2.3715415019762847</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A50" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="B50" s="49">
-        <v>3.6</v>
-      </c>
-      <c r="C50" s="49">
-        <v>3.6</v>
-      </c>
-      <c r="D50" s="48">
-        <v>3.6</v>
-      </c>
-      <c r="G50" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="H50" s="46">
-        <f>B50*$N$1</f>
-        <v>4.7430830039525693</v>
-      </c>
-      <c r="I50" s="46">
-        <f>C50*$N$1</f>
-        <v>4.7430830039525693</v>
-      </c>
-      <c r="J50" s="46">
-        <f>D50*$N$1</f>
-        <v>4.7430830039525693</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A51" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="B51" s="49">
-        <v>4.2</v>
-      </c>
-      <c r="C51" s="49">
-        <v>4.2</v>
-      </c>
-      <c r="D51" s="48">
-        <v>4.2</v>
-      </c>
-      <c r="G51" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="H51" s="46">
-        <f>B51*$N$1</f>
-        <v>5.5335968379446641</v>
-      </c>
-      <c r="I51" s="46">
-        <f>C51*$N$1</f>
-        <v>5.5335968379446641</v>
-      </c>
-      <c r="J51" s="46">
-        <f>D51*$N$1</f>
-        <v>5.5335968379446641</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A52" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="B52" s="49">
-        <v>5</v>
-      </c>
-      <c r="C52" s="49">
-        <v>5</v>
-      </c>
-      <c r="D52" s="48">
-        <v>5</v>
-      </c>
-      <c r="G52" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="H52" s="46">
-        <f>B52*$N$1</f>
-        <v>6.587615283267457</v>
-      </c>
-      <c r="I52" s="46">
-        <f>C52*$N$1</f>
-        <v>6.587615283267457</v>
-      </c>
-      <c r="J52" s="46">
-        <f>D52*$N$1</f>
-        <v>6.587615283267457</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A53" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="B53" s="49">
-        <v>0</v>
-      </c>
-      <c r="C53" s="49">
-        <v>0</v>
-      </c>
-      <c r="D53" s="48">
-        <v>0</v>
-      </c>
-      <c r="G53" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="H53" s="46">
-        <f>B53*$N$1</f>
-        <v>0</v>
-      </c>
-      <c r="I53" s="46">
-        <f>C53*$N$1</f>
-        <v>0</v>
-      </c>
-      <c r="J53" s="46">
-        <f>D53*$N$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A54" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="B54" s="49">
-        <v>0</v>
-      </c>
-      <c r="C54" s="49">
-        <v>0</v>
-      </c>
-      <c r="D54" s="48">
-        <v>0</v>
-      </c>
-      <c r="G54" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="H54" s="46">
-        <f>B54*$N$1</f>
-        <v>0</v>
-      </c>
-      <c r="I54" s="46">
-        <f>C54*$N$1</f>
-        <v>0</v>
-      </c>
-      <c r="J54" s="46">
-        <f>D54*$N$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A55" s="47" t="s">
-        <v>193</v>
-      </c>
-      <c r="B55" s="49">
-        <v>0</v>
-      </c>
-      <c r="C55" s="49">
-        <v>0</v>
-      </c>
-      <c r="D55" s="48">
-        <v>0</v>
-      </c>
-      <c r="G55" s="47" t="s">
-        <v>193</v>
-      </c>
-      <c r="H55" s="46">
-        <f>B55*$N$1</f>
-        <v>0</v>
-      </c>
-      <c r="I55" s="46">
-        <f>C55*$N$1</f>
-        <v>0</v>
-      </c>
-      <c r="J55" s="46">
-        <f>D55*$N$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A56" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="B56" s="45"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-      <c r="G56" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="H56" s="45"/>
-      <c r="I56" s="45"/>
-      <c r="J56" s="45"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A57" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="B57" s="45"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
-      <c r="G57" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="H57" s="45"/>
-      <c r="I57" s="45"/>
-      <c r="J57" s="45"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="7" width="17.26953125" customWidth="1"/>
-    <col min="8" max="8" width="22.54296875" customWidth="1"/>
-    <col min="9" max="9" width="17.26953125" customWidth="1"/>
-    <col min="10" max="10" width="22.453125" customWidth="1"/>
-    <col min="11" max="11" width="20.81640625" customWidth="1"/>
-    <col min="12" max="12" width="28.1796875" customWidth="1"/>
+    <col min="4" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="28.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
@@ -9065,14 +9403,20 @@
       <c r="L1" s="18" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M1" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2015</v>
       </c>
       <c r="B2" s="5">
-        <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Coal")*'Cost Improvement'!B19*1000</f>
-        <v>2417326.4415545794</v>
+        <f>'Poland Capital Costs'!$B$95*'Cost Improvement'!B19*1000</f>
+        <v>2326947.2012436921</v>
       </c>
       <c r="C2" s="5">
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Nonpeaker")*'Cost Improvement'!C19*1000</f>
@@ -9114,14 +9458,22 @@
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Peaker")*1000*'Cost Improvement'!L19</f>
         <v>918695.45245751028</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M2" s="5">
+        <f>'Poland Capital Costs'!$B$96*'Cost Improvement'!B19*1000</f>
+        <v>2688464.1624872414</v>
+      </c>
+      <c r="N2" s="25">
+        <f>'Poland Capital Costs'!$B$97*'Cost Improvement'!F19*1000</f>
+        <v>3735960.3256171076</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2016</v>
       </c>
       <c r="B3" s="5">
-        <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Coal")*'Cost Improvement'!B20*1000</f>
-        <v>2414465.1227227813</v>
+        <f>'Poland Capital Costs'!$B$95*'Cost Improvement'!B20*1000</f>
+        <v>2324192.8616836462</v>
       </c>
       <c r="C3" s="5">
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Nonpeaker")*'Cost Improvement'!C20*1000</f>
@@ -9161,14 +9513,21 @@
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Peaker")*1000*'Cost Improvement'!L20</f>
         <v>918695.45245751028</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M3" s="5">
+        <f>'Poland Capital Costs'!$B$96*'Cost Improvement'!B20*1000</f>
+        <v>2685281.9058401859</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2017</v>
       </c>
       <c r="B4" s="5">
-        <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Coal")*'Cost Improvement'!B21*1000</f>
-        <v>2411607.1907506622</v>
+        <f>'Poland Capital Costs'!$B$95*'Cost Improvement'!B21*1000</f>
+        <v>2321441.7823550343</v>
       </c>
       <c r="C4" s="5">
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Nonpeaker")*'Cost Improvement'!C21*1000</f>
@@ -9208,14 +9567,21 @@
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Peaker")*1000*'Cost Improvement'!L21</f>
         <v>918695.45245751028</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M4" s="5">
+        <f>'Poland Capital Costs'!$B$96*'Cost Improvement'!B21*1000</f>
+        <v>2682103.4159375448</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2018</v>
       </c>
       <c r="B5" s="5">
-        <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Coal")*'Cost Improvement'!B22*1000</f>
-        <v>2408752.6416292959</v>
+        <f>'Poland Capital Costs'!$B$95*'Cost Improvement'!B22*1000</f>
+        <v>2318693.9593988163</v>
       </c>
       <c r="C5" s="5">
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Nonpeaker")*'Cost Improvement'!C22*1000</f>
@@ -9255,14 +9621,21 @@
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Peaker")*1000*'Cost Improvement'!L22</f>
         <v>918695.45245751028</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M5" s="5">
+        <f>'Poland Capital Costs'!$B$96*'Cost Improvement'!B22*1000</f>
+        <v>2678928.6883207331</v>
+      </c>
+      <c r="N5" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2019</v>
       </c>
       <c r="B6" s="5">
-        <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Coal")*'Cost Improvement'!B23*1000</f>
-        <v>2405901.4713544999</v>
+        <f>'Poland Capital Costs'!$B$95*'Cost Improvement'!B23*1000</f>
+        <v>2315949.3889605189</v>
       </c>
       <c r="C6" s="5">
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Nonpeaker")*'Cost Improvement'!C23*1000</f>
@@ -9302,14 +9675,21 @@
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Peaker")*1000*'Cost Improvement'!L23</f>
         <v>918695.45245751028</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M6" s="5">
+        <f>'Poland Capital Costs'!$B$96*'Cost Improvement'!B23*1000</f>
+        <v>2675757.7185364417</v>
+      </c>
+      <c r="N6" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2020</v>
       </c>
       <c r="B7" s="5">
-        <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Coal")*'Cost Improvement'!B24*1000</f>
-        <v>2403053.6759268325</v>
+        <f>'Poland Capital Costs'!$B$95*'Cost Improvement'!B24*1000</f>
+        <v>2313208.0671902313</v>
       </c>
       <c r="C7" s="5">
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Nonpeaker")*'Cost Improvement'!C24*1000</f>
@@ -9349,14 +9729,21 @@
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Peaker")*1000*'Cost Improvement'!L24</f>
         <v>918695.45245751028</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M7" s="5">
+        <f>'Poland Capital Costs'!$B$96*'Cost Improvement'!B24*1000</f>
+        <v>2672590.5021366347</v>
+      </c>
+      <c r="N7" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2021</v>
       </c>
       <c r="B8" s="5">
-        <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Coal")*'Cost Improvement'!B25*1000</f>
-        <v>2400209.2513515851</v>
+        <f>'Poland Capital Costs'!$B$95*'Cost Improvement'!B25*1000</f>
+        <v>2310469.9902426</v>
       </c>
       <c r="C8" s="5">
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Nonpeaker")*'Cost Improvement'!C25*1000</f>
@@ -9396,14 +9783,21 @@
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Peaker")*1000*'Cost Improvement'!L25</f>
         <v>918695.45245751028</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M8" s="5">
+        <f>'Poland Capital Costs'!$B$96*'Cost Improvement'!B25*1000</f>
+        <v>2669427.0346785402</v>
+      </c>
+      <c r="N8" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2022</v>
       </c>
       <c r="B9" s="5">
-        <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Coal")*'Cost Improvement'!B26*1000</f>
-        <v>2397368.1936387788</v>
+        <f>'Poland Capital Costs'!$B$95*'Cost Improvement'!B26*1000</f>
+        <v>2307735.1542768232</v>
       </c>
       <c r="C9" s="5">
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Nonpeaker")*'Cost Improvement'!C26*1000</f>
@@ -9443,14 +9837,21 @@
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Peaker")*1000*'Cost Improvement'!L26</f>
         <v>918695.45245751028</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M9" s="5">
+        <f>'Poland Capital Costs'!$B$96*'Cost Improvement'!B26*1000</f>
+        <v>2666267.3117246451</v>
+      </c>
+      <c r="N9" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2023</v>
       </c>
       <c r="B10" s="5">
-        <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Coal")*'Cost Improvement'!B27*1000</f>
-        <v>2394530.4988031564</v>
+        <f>'Poland Capital Costs'!$B$95*'Cost Improvement'!B27*1000</f>
+        <v>2305003.5554566453</v>
       </c>
       <c r="C10" s="5">
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Nonpeaker")*'Cost Improvement'!C27*1000</f>
@@ -9490,14 +9891,21 @@
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Peaker")*1000*'Cost Improvement'!L27</f>
         <v>918695.45245751028</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M10" s="5">
+        <f>'Poland Capital Costs'!$B$96*'Cost Improvement'!B27*1000</f>
+        <v>2663111.3288426884</v>
+      </c>
+      <c r="N10" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2024</v>
       </c>
       <c r="B11" s="5">
-        <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Coal")*'Cost Improvement'!B28*1000</f>
-        <v>2391696.1628641775</v>
+        <f>'Poland Capital Costs'!$B$95*'Cost Improvement'!B28*1000</f>
+        <v>2302275.1899503511</v>
       </c>
       <c r="C11" s="5">
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Nonpeaker")*'Cost Improvement'!C28*1000</f>
@@ -9537,14 +9945,21 @@
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Peaker")*1000*'Cost Improvement'!L28</f>
         <v>918695.45245751028</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M11" s="5">
+        <f>'Poland Capital Costs'!$B$96*'Cost Improvement'!B28*1000</f>
+        <v>2659959.081605657</v>
+      </c>
+      <c r="N11" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2025</v>
       </c>
       <c r="B12" s="5">
-        <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Coal")*'Cost Improvement'!B29*1000</f>
-        <v>2388865.1818460147</v>
+        <f>'Poland Capital Costs'!$B$95*'Cost Improvement'!B29*1000</f>
+        <v>2299550.0539307608</v>
       </c>
       <c r="C12" s="5">
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Nonpeaker")*'Cost Improvement'!C29*1000</f>
@@ -9584,14 +9999,21 @@
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Peaker")*1000*'Cost Improvement'!L29</f>
         <v>918695.45245751028</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M12" s="5">
+        <f>'Poland Capital Costs'!$B$96*'Cost Improvement'!B29*1000</f>
+        <v>2656810.5655917763</v>
+      </c>
+      <c r="N12" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2026</v>
       </c>
       <c r="B13" s="5">
-        <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Coal")*'Cost Improvement'!B30*1000</f>
-        <v>2386037.5517775463</v>
+        <f>'Poland Capital Costs'!$B$95*'Cost Improvement'!B30*1000</f>
+        <v>2296828.143575226</v>
       </c>
       <c r="C13" s="5">
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Nonpeaker")*'Cost Improvement'!C30*1000</f>
@@ -9631,14 +10053,21 @@
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Peaker")*1000*'Cost Improvement'!L30</f>
         <v>918695.45245751028</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M13" s="5">
+        <f>'Poland Capital Costs'!$B$96*'Cost Improvement'!B30*1000</f>
+        <v>2653665.7763845064</v>
+      </c>
+      <c r="N13" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2027</v>
       </c>
       <c r="B14" s="5">
-        <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Coal")*'Cost Improvement'!B31*1000</f>
-        <v>2383213.26869235</v>
+        <f>'Poland Capital Costs'!$B$95*'Cost Improvement'!B31*1000</f>
+        <v>2294109.4550656215</v>
       </c>
       <c r="C14" s="5">
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Nonpeaker")*'Cost Improvement'!C31*1000</f>
@@ -9678,14 +10107,21 @@
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Peaker")*1000*'Cost Improvement'!L31</f>
         <v>918695.45245751028</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M14" s="5">
+        <f>'Poland Capital Costs'!$B$96*'Cost Improvement'!B31*1000</f>
+        <v>2650524.7095725345</v>
+      </c>
+      <c r="N14" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2028</v>
       </c>
       <c r="B15" s="5">
-        <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Coal")*'Cost Improvement'!B32*1000</f>
-        <v>2380392.3286287002</v>
+        <f>'Poland Capital Costs'!$B$95*'Cost Improvement'!B32*1000</f>
+        <v>2291393.9845883432</v>
       </c>
       <c r="C15" s="5">
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Nonpeaker")*'Cost Improvement'!C32*1000</f>
@@ -9725,14 +10161,21 @@
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Peaker")*1000*'Cost Improvement'!L32</f>
         <v>918695.45245751028</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M15" s="5">
+        <f>'Poland Capital Costs'!$B$96*'Cost Improvement'!B32*1000</f>
+        <v>2647387.3607497709</v>
+      </c>
+      <c r="N15" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2029</v>
       </c>
       <c r="B16" s="5">
-        <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Coal")*'Cost Improvement'!B33*1000</f>
-        <v>2377574.7276295591</v>
+        <f>'Poland Capital Costs'!$B$95*'Cost Improvement'!B33*1000</f>
+        <v>2288681.7283342988</v>
       </c>
       <c r="C16" s="5">
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Nonpeaker")*'Cost Improvement'!C33*1000</f>
@@ -9772,14 +10215,21 @@
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Peaker")*1000*'Cost Improvement'!L33</f>
         <v>918695.45245751028</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M16" s="5">
+        <f>'Poland Capital Costs'!$B$96*'Cost Improvement'!B33*1000</f>
+        <v>2644253.7255153391</v>
+      </c>
+      <c r="N16" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2030</v>
       </c>
       <c r="B17" s="5">
-        <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Coal")*'Cost Improvement'!B34*1000</f>
-        <v>2374760.4617425739</v>
+        <f>'Poland Capital Costs'!$B$95*'Cost Improvement'!B34*1000</f>
+        <v>2285972.6824989077</v>
       </c>
       <c r="C17" s="5">
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Nonpeaker")*'Cost Improvement'!C34*1000</f>
@@ -9819,14 +10269,21 @@
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Peaker")*1000*'Cost Improvement'!L34</f>
         <v>918695.45245751028</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M17" s="5">
+        <f>'Poland Capital Costs'!$B$96*'Cost Improvement'!B34*1000</f>
+        <v>2641123.7994735735</v>
+      </c>
+      <c r="N17" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2031</v>
       </c>
       <c r="B18" s="5">
-        <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Coal")*'Cost Improvement'!B35*1000</f>
-        <v>2371949.5270200693</v>
+        <f>'Poland Capital Costs'!$B$95*'Cost Improvement'!B35*1000</f>
+        <v>2283266.8432820886</v>
       </c>
       <c r="C18" s="5">
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Nonpeaker")*'Cost Improvement'!C35*1000</f>
@@ -9866,14 +10323,21 @@
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Peaker")*1000*'Cost Improvement'!L35</f>
         <v>918695.45245751028</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M18" s="5">
+        <f>'Poland Capital Costs'!$B$96*'Cost Improvement'!B35*1000</f>
+        <v>2637997.5782340104</v>
+      </c>
+      <c r="N18" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2032</v>
       </c>
       <c r="B19" s="5">
-        <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Coal")*'Cost Improvement'!B36*1000</f>
-        <v>2369141.9195190426</v>
+        <f>'Poland Capital Costs'!$B$95*'Cost Improvement'!B36*1000</f>
+        <v>2280564.2068882622</v>
       </c>
       <c r="C19" s="5">
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Nonpeaker")*'Cost Improvement'!C36*1000</f>
@@ -9913,14 +10377,21 @@
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Peaker")*1000*'Cost Improvement'!L36</f>
         <v>918695.45245751028</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M19" s="5">
+        <f>'Poland Capital Costs'!$B$96*'Cost Improvement'!B36*1000</f>
+        <v>2634875.0574113838</v>
+      </c>
+      <c r="N19" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2033</v>
       </c>
       <c r="B20" s="5">
-        <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Coal")*'Cost Improvement'!B37*1000</f>
-        <v>2366337.6353011597</v>
+        <f>'Poland Capital Costs'!$B$95*'Cost Improvement'!B37*1000</f>
+        <v>2277864.7695263401</v>
       </c>
       <c r="C20" s="5">
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Nonpeaker")*'Cost Improvement'!C37*1000</f>
@@ -9960,14 +10431,21 @@
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Peaker")*1000*'Cost Improvement'!L37</f>
         <v>918695.45245751028</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M20" s="5">
+        <f>'Poland Capital Costs'!$B$96*'Cost Improvement'!B37*1000</f>
+        <v>2631756.2326256181</v>
+      </c>
+      <c r="N20" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2034</v>
       </c>
       <c r="B21" s="5">
-        <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Coal")*'Cost Improvement'!B38*1000</f>
-        <v>2363536.6704327464</v>
+        <f>'Poland Capital Costs'!$B$95*'Cost Improvement'!B38*1000</f>
+        <v>2275168.5274097207</v>
       </c>
       <c r="C21" s="5">
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Nonpeaker")*'Cost Improvement'!C38*1000</f>
@@ -10007,14 +10485,21 @@
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Peaker")*1000*'Cost Improvement'!L38</f>
         <v>918695.45245751028</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M21" s="5">
+        <f>'Poland Capital Costs'!$B$96*'Cost Improvement'!B38*1000</f>
+        <v>2628641.0995018217</v>
+      </c>
+      <c r="N21" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2035</v>
       </c>
       <c r="B22" s="5">
-        <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Coal")*'Cost Improvement'!B39*1000</f>
-        <v>2360739.0209847852</v>
+        <f>'Poland Capital Costs'!$B$95*'Cost Improvement'!B39*1000</f>
+        <v>2272475.4767562863</v>
       </c>
       <c r="C22" s="5">
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Nonpeaker")*'Cost Improvement'!C39*1000</f>
@@ -10054,14 +10539,21 @@
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Peaker")*1000*'Cost Improvement'!L39</f>
         <v>918695.45245751028</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M22" s="5">
+        <f>'Poland Capital Costs'!$B$96*'Cost Improvement'!B39*1000</f>
+        <v>2625529.6536702826</v>
+      </c>
+      <c r="N22" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2036</v>
       </c>
       <c r="B23" s="5">
-        <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Coal")*'Cost Improvement'!B40*1000</f>
-        <v>2357944.6830329113</v>
+        <f>'Poland Capital Costs'!$B$95*'Cost Improvement'!B40*1000</f>
+        <v>2269785.6137883947</v>
       </c>
       <c r="C23" s="5">
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Nonpeaker")*'Cost Improvement'!C40*1000</f>
@@ -10101,14 +10593,21 @@
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Peaker")*1000*'Cost Improvement'!L40</f>
         <v>918695.45245751028</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M23" s="5">
+        <f>'Poland Capital Costs'!$B$96*'Cost Improvement'!B40*1000</f>
+        <v>2622421.8907664604</v>
+      </c>
+      <c r="N23" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2037</v>
       </c>
       <c r="B24" s="5">
-        <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Coal")*'Cost Improvement'!B41*1000</f>
-        <v>2355153.6526574013</v>
+        <f>'Poland Capital Costs'!$B$95*'Cost Improvement'!B41*1000</f>
+        <v>2267098.9347328749</v>
       </c>
       <c r="C24" s="5">
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Nonpeaker")*'Cost Improvement'!C41*1000</f>
@@ -10148,14 +10647,21 @@
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Peaker")*1000*'Cost Improvement'!L41</f>
         <v>918695.45245751028</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M24" s="5">
+        <f>'Poland Capital Costs'!$B$96*'Cost Improvement'!B41*1000</f>
+        <v>2619317.8064309801</v>
+      </c>
+      <c r="N24" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2038</v>
       </c>
       <c r="B25" s="5">
-        <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Coal")*'Cost Improvement'!B42*1000</f>
-        <v>2352365.9259431749</v>
+        <f>'Poland Capital Costs'!$B$95*'Cost Improvement'!B42*1000</f>
+        <v>2264415.4358210233</v>
       </c>
       <c r="C25" s="5">
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Nonpeaker")*'Cost Improvement'!C42*1000</f>
@@ -10195,14 +10701,21 @@
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Peaker")*1000*'Cost Improvement'!L42</f>
         <v>918695.45245751028</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M25" s="5">
+        <f>'Poland Capital Costs'!$B$96*'Cost Improvement'!B42*1000</f>
+        <v>2616217.3963096286</v>
+      </c>
+      <c r="N25" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2039</v>
       </c>
       <c r="B26" s="5">
-        <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Coal")*'Cost Improvement'!B43*1000</f>
-        <v>2349581.4989797836</v>
+        <f>'Poland Capital Costs'!$B$95*'Cost Improvement'!B43*1000</f>
+        <v>2261735.1132885963</v>
       </c>
       <c r="C26" s="5">
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Nonpeaker")*'Cost Improvement'!C43*1000</f>
@@ -10242,14 +10755,21 @@
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Peaker")*1000*'Cost Improvement'!L43</f>
         <v>918695.45245751028</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M26" s="5">
+        <f>'Poland Capital Costs'!$B$96*'Cost Improvement'!B43*1000</f>
+        <v>2613120.6560533457</v>
+      </c>
+      <c r="N26" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2040</v>
       </c>
       <c r="B27" s="5">
-        <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Coal")*'Cost Improvement'!B44*1000</f>
-        <v>2346800.3678614097</v>
+        <f>'Poland Capital Costs'!$B$95*'Cost Improvement'!B44*1000</f>
+        <v>2259057.9633758063</v>
       </c>
       <c r="C27" s="5">
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Nonpeaker")*'Cost Improvement'!C44*1000</f>
@@ -10289,14 +10809,21 @@
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Peaker")*1000*'Cost Improvement'!L44</f>
         <v>918695.45245751028</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M27" s="5">
+        <f>'Poland Capital Costs'!$B$96*'Cost Improvement'!B44*1000</f>
+        <v>2610027.5813182183</v>
+      </c>
+      <c r="N27" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2041</v>
       </c>
       <c r="B28" s="5">
-        <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Coal")*'Cost Improvement'!B45*1000</f>
-        <v>2344022.5286868564</v>
+        <f>'Poland Capital Costs'!$B$95*'Cost Improvement'!B45*1000</f>
+        <v>2256383.982327316</v>
       </c>
       <c r="C28" s="5">
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Nonpeaker")*'Cost Improvement'!C45*1000</f>
@@ -10336,14 +10863,21 @@
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Peaker")*1000*'Cost Improvement'!L45</f>
         <v>918695.45245751028</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M28" s="5">
+        <f>'Poland Capital Costs'!$B$96*'Cost Improvement'!B45*1000</f>
+        <v>2606938.1677654767</v>
+      </c>
+      <c r="N28" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2042</v>
       </c>
       <c r="B29" s="5">
-        <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Coal")*'Cost Improvement'!B46*1000</f>
-        <v>2341247.977559546</v>
+        <f>'Poland Capital Costs'!$B$95*'Cost Improvement'!B46*1000</f>
+        <v>2253713.1663922328</v>
       </c>
       <c r="C29" s="5">
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Nonpeaker")*'Cost Improvement'!C46*1000</f>
@@ -10383,14 +10917,21 @@
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Peaker")*1000*'Cost Improvement'!L46</f>
         <v>918695.45245751028</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M29" s="5">
+        <f>'Poland Capital Costs'!$B$96*'Cost Improvement'!B46*1000</f>
+        <v>2603852.4110614858</v>
+      </c>
+      <c r="N29" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2043</v>
       </c>
       <c r="B30" s="5">
-        <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Coal")*'Cost Improvement'!B47*1000</f>
-        <v>2338476.7105875136</v>
+        <f>'Poland Capital Costs'!$B$95*'Cost Improvement'!B47*1000</f>
+        <v>2251045.5118241049</v>
       </c>
       <c r="C30" s="5">
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Nonpeaker")*'Cost Improvement'!C47*1000</f>
@@ -10430,14 +10971,21 @@
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Peaker")*1000*'Cost Improvement'!L47</f>
         <v>918695.45245751028</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M30" s="5">
+        <f>'Poland Capital Costs'!$B$96*'Cost Improvement'!B47*1000</f>
+        <v>2600770.3068777402</v>
+      </c>
+      <c r="N30" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2044</v>
       </c>
       <c r="B31" s="5">
-        <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Coal")*'Cost Improvement'!B48*1000</f>
-        <v>2335708.7238833997</v>
+        <f>'Poland Capital Costs'!$B$95*'Cost Improvement'!B48*1000</f>
+        <v>2248381.0148809133</v>
       </c>
       <c r="C31" s="5">
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Nonpeaker")*'Cost Improvement'!C48*1000</f>
@@ -10477,14 +11025,21 @@
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Peaker")*1000*'Cost Improvement'!L48</f>
         <v>918695.45245751028</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M31" s="5">
+        <f>'Poland Capital Costs'!$B$96*'Cost Improvement'!B48*1000</f>
+        <v>2597691.8508908586</v>
+      </c>
+      <c r="N31" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2045</v>
       </c>
       <c r="B32" s="5">
-        <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Coal")*'Cost Improvement'!B49*1000</f>
-        <v>2332944.0135644465</v>
+        <f>'Poland Capital Costs'!$B$95*'Cost Improvement'!B49*1000</f>
+        <v>2245719.6718250699</v>
       </c>
       <c r="C32" s="5">
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Nonpeaker")*'Cost Improvement'!C49*1000</f>
@@ -10524,14 +11079,21 @@
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Peaker")*1000*'Cost Improvement'!L49</f>
         <v>918695.45245751028</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M32" s="5">
+        <f>'Poland Capital Costs'!$B$96*'Cost Improvement'!B49*1000</f>
+        <v>2594617.0387825756</v>
+      </c>
+      <c r="N32" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2046</v>
       </c>
       <c r="B33" s="5">
-        <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Coal")*'Cost Improvement'!B50*1000</f>
-        <v>2330182.575752493</v>
+        <f>'Poland Capital Costs'!$B$95*'Cost Improvement'!B50*1000</f>
+        <v>2243061.4789234111</v>
       </c>
       <c r="C33" s="5">
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Nonpeaker")*'Cost Improvement'!C50*1000</f>
@@ -10571,14 +11133,21 @@
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Peaker")*1000*'Cost Improvement'!L50</f>
         <v>918695.45245751028</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M33" s="5">
+        <f>'Poland Capital Costs'!$B$96*'Cost Improvement'!B50*1000</f>
+        <v>2591545.8662397396</v>
+      </c>
+      <c r="N33" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2047</v>
       </c>
       <c r="B34" s="5">
-        <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Coal")*'Cost Improvement'!B51*1000</f>
-        <v>2327424.4065739675</v>
+        <f>'Poland Capital Costs'!$B$95*'Cost Improvement'!B51*1000</f>
+        <v>2240406.4324471895</v>
       </c>
       <c r="C34" s="5">
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Nonpeaker")*'Cost Improvement'!C51*1000</f>
@@ -10618,14 +11187,21 @@
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Peaker")*1000*'Cost Improvement'!L51</f>
         <v>918695.45245751028</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M34" s="5">
+        <f>'Poland Capital Costs'!$B$96*'Cost Improvement'!B51*1000</f>
+        <v>2588478.3289543022</v>
+      </c>
+      <c r="N34" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2048</v>
       </c>
       <c r="B35" s="5">
-        <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Coal")*'Cost Improvement'!B52*1000</f>
-        <v>2324669.5021598851</v>
+        <f>'Poland Capital Costs'!$B$95*'Cost Improvement'!B52*1000</f>
+        <v>2237754.5286720749</v>
       </c>
       <c r="C35" s="5">
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Nonpeaker")*'Cost Improvement'!C52*1000</f>
@@ -10665,14 +11241,21 @@
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Peaker")*1000*'Cost Improvement'!L52</f>
         <v>918695.45245751028</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M35" s="5">
+        <f>'Poland Capital Costs'!$B$96*'Cost Improvement'!B52*1000</f>
+        <v>2585414.4226233163</v>
+      </c>
+      <c r="N35" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2049</v>
       </c>
       <c r="B36" s="5">
-        <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Coal")*'Cost Improvement'!B53*1000</f>
-        <v>2321917.8586458378</v>
+        <f>'Poland Capital Costs'!$B$95*'Cost Improvement'!B53*1000</f>
+        <v>2235105.763878142</v>
       </c>
       <c r="C36" s="5">
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Nonpeaker")*'Cost Improvement'!C53*1000</f>
@@ -10712,14 +11295,21 @@
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Peaker")*1000*'Cost Improvement'!L53</f>
         <v>918695.45245751028</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M36" s="5">
+        <f>'Poland Capital Costs'!$B$96*'Cost Improvement'!B53*1000</f>
+        <v>2582354.1429489255</v>
+      </c>
+      <c r="N36" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2050</v>
       </c>
       <c r="B37" s="5">
-        <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Coal")*'Cost Improvement'!B54*1000</f>
-        <v>2319169.4721719944</v>
+        <f>'Poland Capital Costs'!$B$95*'Cost Improvement'!B54*1000</f>
+        <v>2232460.1343498714</v>
       </c>
       <c r="C37" s="5">
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Nonpeaker")*'Cost Improvement'!C54*1000</f>
@@ -10759,119 +11349,52 @@
         <f>GETPIVOTDATA("Average of Capital Cost",'Poland Capital Costs'!$A$82,"Model Energy Source","Natural Gas Peaker")*1000*'Cost Improvement'!L54</f>
         <v>918695.45245751028</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M37" s="5">
+        <f>'Poland Capital Costs'!$B$96*'Cost Improvement'!B54*1000</f>
+        <v>2579297.4856383633</v>
+      </c>
+      <c r="N37" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B38" s="17"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" s="17"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="17"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="17"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" s="17"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B43" s="17"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B44" s="17"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B45" s="17"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B46" s="17"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B47" s="17"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B48" s="17"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="17"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="17"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1">
-        <v>3.11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1.05</v>
-      </c>
-      <c r="B2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <f>A1*A2</f>
-        <v>3.2654999999999998</v>
-      </c>
-      <c r="B3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="26">
-        <v>0.97</v>
-      </c>
-      <c r="B4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>0.99</v>
-      </c>
-      <c r="B5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>0.72599999999999998</v>
-      </c>
-      <c r="B6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <f>A6*A5</f>
-        <v>0.71873999999999993</v>
-      </c>
-      <c r="B7" t="s">
-        <v>155</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10883,118 +11406,239 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B1" s="22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="5">
-        <f>INDEX('Poland Capital Costs'!$D$83:$D$93,MATCH('CCaMC-AFOaMCpUC'!A2,'Poland Capital Costs'!$A$83:$A$93,0),1)*1000</f>
-        <v>38967.99877507273</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="21">
+        <f>GETPIVOTDATA("Average of Variable O&amp;M",'Poland Capital Costs'!$A$82,"Model Energy Source","Coal")</f>
+        <v>3.2996478334098915</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <f>B2</f>
+        <v>3.2996478334098915</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="5">
-        <f>INDEX('Poland Capital Costs'!$D$83:$D$93,MATCH('CCaMC-AFOaMCpUC'!A3,'Poland Capital Costs'!$A$83:$A$93,0),1)*1000</f>
-        <v>37666.513550757925</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="21">
+        <f>INDEX('Poland Capital Costs'!$C$83:$C$93,MATCH('CCaMC-VOaMCpUC'!A3,'Poland Capital Costs'!$A$83:$A$93,0),1)</f>
+        <v>1.7761445414178534</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="21">
+        <f t="shared" ref="D3:D14" si="0">B3</f>
+        <v>1.7761445414178534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="5">
-        <f>'Poland Capital Costs'!A78*1000</f>
-        <v>118577.07509881424</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="21">
+        <f>INDEX('Poland Capital Costs'!$C$83:$C$93,MATCH('CCaMC-VOaMCpUC'!A4,'Poland Capital Costs'!$A$83:$A$93,0),1)</f>
+        <v>1.2249272699433471</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="21">
+        <f t="shared" si="0"/>
+        <v>1.2249272699433471</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="5">
-        <f>INDEX('Poland Capital Costs'!$D$83:$D$93,MATCH('CCaMC-AFOaMCpUC'!A5,'Poland Capital Costs'!$A$83:$A$93,0),1)*1000</f>
-        <v>199050.68136579392</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="21">
+        <f>INDEX('Poland Capital Costs'!$C$83:$C$93,MATCH('CCaMC-VOaMCpUC'!A5,'Poland Capital Costs'!$A$83:$A$93,0),1)</f>
+        <v>3.5522890828357068</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="21">
+        <f t="shared" si="0"/>
+        <v>3.5522890828357068</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="5">
-        <f>INDEX('Poland Capital Costs'!$D$83:$D$93,MATCH('CCaMC-AFOaMCpUC'!A6,'Poland Capital Costs'!$A$83:$A$93,0),1)*1000</f>
-        <v>61246.36349716736</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="21">
+        <f>INDEX('Poland Capital Costs'!$C$83:$C$93,MATCH('CCaMC-VOaMCpUC'!A6,'Poland Capital Costs'!$A$83:$A$93,0),1)</f>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="5">
-        <f>INDEX('Poland Capital Costs'!$D$83:$D$93,MATCH('CCaMC-AFOaMCpUC'!A7,'Poland Capital Costs'!$A$83:$A$93,0),1)*1000</f>
-        <v>35216.659010871233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="21">
+        <f>INDEX('Poland Capital Costs'!$C$83:$C$93,MATCH('CCaMC-VOaMCpUC'!A7,'Poland Capital Costs'!$A$83:$A$93,0),1)</f>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="5">
-        <f>INDEX('Poland Capital Costs'!$D$83:$D$93,MATCH('CCaMC-AFOaMCpUC'!A8,'Poland Capital Costs'!$A$83:$A$93,0),1)*1000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="21">
+        <f>INDEX('Poland Capital Costs'!$C$83:$C$93,MATCH('CCaMC-VOaMCpUC'!A8,'Poland Capital Costs'!$A$83:$A$93,0),1)</f>
+        <v>29.099999999999998</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="21">
+        <f t="shared" si="0"/>
+        <v>29.099999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="5">
-        <f>INDEX('Poland Capital Costs'!$D$83:$D$93,MATCH('CCaMC-AFOaMCpUC'!A9,'Poland Capital Costs'!$A$83:$A$93,0),1)*1000</f>
-        <v>48690.858980248049</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B9" s="21">
+        <f>INDEX('Poland Capital Costs'!$C$83:$C$93,MATCH('CCaMC-VOaMCpUC'!A9,'Poland Capital Costs'!$A$83:$A$93,0),1)</f>
+        <v>3.5522890828357068</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="21">
+        <f t="shared" si="0"/>
+        <v>3.5522890828357068</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="5">
-        <f>INDEX('Poland Capital Costs'!$D$83:$D$93,MATCH('CCaMC-AFOaMCpUC'!A10,'Poland Capital Costs'!$A$83:$A$93,0),1)*1000</f>
-        <v>111721.49999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B10" s="21">
+        <f>INDEX('Poland Capital Costs'!$C$83:$C$93,MATCH('CCaMC-VOaMCpUC'!A10,'Poland Capital Costs'!$A$83:$A$93,0),1)</f>
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="5">
-        <f>INDEX('Poland Capital Costs'!$D$83:$D$93,MATCH('CCaMC-AFOaMCpUC'!A11,'Poland Capital Costs'!$A$83:$A$93,0),1)*1000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="B11" s="21">
+        <f>INDEX('Poland Capital Costs'!$C$83:$C$93,MATCH('CCaMC-VOaMCpUC'!A11,'Poland Capital Costs'!$A$83:$A$93,0),1)</f>
+        <v>41.73971116119877</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21">
+        <f t="shared" si="0"/>
+        <v>41.73971116119877</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="5">
-        <f>INDEX('Poland Capital Costs'!$D$83:$D$93,MATCH('CCaMC-AFOaMCpUC'!A12,'Poland Capital Costs'!$A$83:$A$93,0),1)*1000</f>
-        <v>26642.168121267801</v>
+      <c r="B12" s="21">
+        <f>INDEX('Poland Capital Costs'!$C$83:$C$93,MATCH('CCaMC-VOaMCpUC'!A12,'Poland Capital Costs'!$A$83:$A$93,0),1)</f>
+        <v>1.7761445414178534</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="21">
+        <f t="shared" si="0"/>
+        <v>1.7761445414178534</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" s="5">
+        <f>'Poland Capital Costs'!C96</f>
+        <v>3.7054049915786251</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="21">
+        <f t="shared" si="0"/>
+        <v>3.7054049915786251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14">
+        <f>GETPIVOTDATA("Average of Variable O&amp;M",'Poland Capital Costs'!$A$82,"Model Energy Source","Wind")</f>
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11004,121 +11648,71 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="23.54296875" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B1" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="21">
-        <f>INDEX('Poland Capital Costs'!$C$83:$C$93,MATCH('CCaMC-VOaMCpUC'!A2,'Poland Capital Costs'!$A$83:$A$93,0),1)</f>
-        <v>3.2996478334098915</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="21">
-        <f>INDEX('Poland Capital Costs'!$C$83:$C$93,MATCH('CCaMC-VOaMCpUC'!A3,'Poland Capital Costs'!$A$83:$A$93,0),1)</f>
-        <v>1.7761445414178534</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="21">
-        <f>INDEX('Poland Capital Costs'!$C$83:$C$93,MATCH('CCaMC-VOaMCpUC'!A4,'Poland Capital Costs'!$A$83:$A$93,0),1)</f>
-        <v>1.2249272699433471</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="21">
-        <f>INDEX('Poland Capital Costs'!$C$83:$C$93,MATCH('CCaMC-VOaMCpUC'!A5,'Poland Capital Costs'!$A$83:$A$93,0),1)</f>
-        <v>3.5522890828357068</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="21">
-        <f>INDEX('Poland Capital Costs'!$C$83:$C$93,MATCH('CCaMC-VOaMCpUC'!A6,'Poland Capital Costs'!$A$83:$A$93,0),1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="21">
-        <f>INDEX('Poland Capital Costs'!$C$83:$C$93,MATCH('CCaMC-VOaMCpUC'!A7,'Poland Capital Costs'!$A$83:$A$93,0),1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="21">
-        <f>INDEX('Poland Capital Costs'!$C$83:$C$93,MATCH('CCaMC-VOaMCpUC'!A8,'Poland Capital Costs'!$A$83:$A$93,0),1)</f>
-        <v>29.099999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="21">
-        <f>INDEX('Poland Capital Costs'!$C$83:$C$93,MATCH('CCaMC-VOaMCpUC'!A9,'Poland Capital Costs'!$A$83:$A$93,0),1)</f>
-        <v>3.5522890828357068</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="21">
-        <f>INDEX('Poland Capital Costs'!$C$83:$C$93,MATCH('CCaMC-VOaMCpUC'!A10,'Poland Capital Costs'!$A$83:$A$93,0),1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="21">
-        <f>INDEX('Poland Capital Costs'!$C$83:$C$93,MATCH('CCaMC-VOaMCpUC'!A11,'Poland Capital Costs'!$A$83:$A$93,0),1)</f>
-        <v>41.73971116119877</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="21">
-        <f>INDEX('Poland Capital Costs'!$C$83:$C$93,MATCH('CCaMC-VOaMCpUC'!A12,'Poland Capital Costs'!$A$83:$A$93,0),1)</f>
-        <v>1.7761445414178534</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>3.11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1.05</v>
+      </c>
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A1*A2</f>
+        <v>3.2654999999999998</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
+        <v>0.97</v>
+      </c>
+      <c r="B4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="B6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>A6*A5</f>
+        <v>0.71873999999999993</v>
+      </c>
+      <c r="B7" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
